--- a/Input_data/EST_US_trad_eco_cal_2024-12-28_to_2025-02-24.xlsx
+++ b/Input_data/EST_US_trad_eco_cal_2024-12-28_to_2025-02-24.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G613"/>
+  <dimension ref="A1:G612"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -11766,10 +11766,8 @@
           <t>45K</t>
         </is>
       </c>
-      <c r="G431" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G431" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="432">
@@ -11799,10 +11797,8 @@
           <t>215.0K</t>
         </is>
       </c>
-      <c r="G432" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="G432" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="433">
@@ -11832,10 +11828,8 @@
           <t>1.9%</t>
         </is>
       </c>
-      <c r="G433" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="G433" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="434">
@@ -11865,10 +11859,8 @@
           <t>3%</t>
         </is>
       </c>
-      <c r="G434" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="G434" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="435">
@@ -11898,10 +11890,8 @@
           <t>1855.0K</t>
         </is>
       </c>
-      <c r="G435" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G435" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="436">
@@ -11927,10 +11917,8 @@
           <t>215.5K</t>
         </is>
       </c>
-      <c r="G436" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G436" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="437">
@@ -11956,10 +11944,8 @@
         </is>
       </c>
       <c r="F437" t="inlineStr"/>
-      <c r="G437" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G437" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="438">
@@ -11981,10 +11967,8 @@
       </c>
       <c r="E438" t="inlineStr"/>
       <c r="F438" t="inlineStr"/>
-      <c r="G438" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G438" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="439">
@@ -12006,10 +11990,8 @@
       </c>
       <c r="E439" t="inlineStr"/>
       <c r="F439" t="inlineStr"/>
-      <c r="G439" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G439" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="440">
@@ -12031,10 +12013,8 @@
       </c>
       <c r="E440" t="inlineStr"/>
       <c r="F440" t="inlineStr"/>
-      <c r="G440" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G440" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="441">
@@ -12056,10 +12036,8 @@
       </c>
       <c r="E441" t="inlineStr"/>
       <c r="F441" t="inlineStr"/>
-      <c r="G441" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G441" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="442">
@@ -12077,10 +12055,8 @@
       <c r="D442" t="inlineStr"/>
       <c r="E442" t="inlineStr"/>
       <c r="F442" t="inlineStr"/>
-      <c r="G442" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="G442" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="443">
@@ -12098,10 +12074,8 @@
       <c r="D443" t="inlineStr"/>
       <c r="E443" t="inlineStr"/>
       <c r="F443" t="inlineStr"/>
-      <c r="G443" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="G443" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="444">
@@ -12123,10 +12097,8 @@
       </c>
       <c r="E444" t="inlineStr"/>
       <c r="F444" t="inlineStr"/>
-      <c r="G444" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G444" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="445">
@@ -12144,24 +12116,42 @@
       </c>
       <c r="E445" t="inlineStr"/>
       <c r="F445" t="inlineStr"/>
-      <c r="G445" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G445" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="446">
       <c r="A446" t="inlineStr">
         <is>
-          <t>Friday February 07 2025</t>
-        </is>
-      </c>
-      <c r="B446" t="inlineStr"/>
+          <t>08:30 AM</t>
+        </is>
+      </c>
+      <c r="B446" t="inlineStr">
+        <is>
+          <t>Non Farm PayrollsJAN</t>
+        </is>
+      </c>
       <c r="C446" t="inlineStr"/>
-      <c r="D446" t="inlineStr"/>
-      <c r="E446" t="inlineStr"/>
-      <c r="F446" t="inlineStr"/>
-      <c r="G446" t="inlineStr"/>
+      <c r="D446" t="inlineStr">
+        <is>
+          <t>256K</t>
+        </is>
+      </c>
+      <c r="E446" t="inlineStr">
+        <is>
+          <t>170K</t>
+        </is>
+      </c>
+      <c r="F446" t="inlineStr">
+        <is>
+          <t>205K</t>
+        </is>
+      </c>
+      <c r="G446" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
     </row>
     <row r="447">
       <c r="A447" t="inlineStr">
@@ -12171,23 +12161,23 @@
       </c>
       <c r="B447" t="inlineStr">
         <is>
-          <t>Non Farm PayrollsJAN</t>
+          <t>Unemployment RateJAN</t>
         </is>
       </c>
       <c r="C447" t="inlineStr"/>
       <c r="D447" t="inlineStr">
         <is>
-          <t>256K</t>
+          <t>4.1%</t>
         </is>
       </c>
       <c r="E447" t="inlineStr">
         <is>
-          <t>170K</t>
+          <t>4.1%</t>
         </is>
       </c>
       <c r="F447" t="inlineStr">
         <is>
-          <t>205K</t>
+          <t>4.1%</t>
         </is>
       </c>
       <c r="G447" t="inlineStr">
@@ -12204,28 +12194,28 @@
       </c>
       <c r="B448" t="inlineStr">
         <is>
-          <t>Unemployment RateJAN</t>
+          <t>Average Hourly Earnings MoMJAN</t>
         </is>
       </c>
       <c r="C448" t="inlineStr"/>
       <c r="D448" t="inlineStr">
         <is>
-          <t>4.1%</t>
+          <t>0.3%</t>
         </is>
       </c>
       <c r="E448" t="inlineStr">
         <is>
-          <t>4.1%</t>
+          <t>0.3%</t>
         </is>
       </c>
       <c r="F448" t="inlineStr">
         <is>
-          <t>4.1%</t>
+          <t>0.3%</t>
         </is>
       </c>
       <c r="G448" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
     </row>
@@ -12237,23 +12227,23 @@
       </c>
       <c r="B449" t="inlineStr">
         <is>
-          <t>Average Hourly Earnings MoMJAN</t>
+          <t>Average Hourly Earnings YoYJAN</t>
         </is>
       </c>
       <c r="C449" t="inlineStr"/>
       <c r="D449" t="inlineStr">
         <is>
-          <t>0.3%</t>
+          <t>3.9%</t>
         </is>
       </c>
       <c r="E449" t="inlineStr">
         <is>
-          <t>0.3%</t>
+          <t>3.8%</t>
         </is>
       </c>
       <c r="F449" t="inlineStr">
         <is>
-          <t>0.3%</t>
+          <t>3.9%</t>
         </is>
       </c>
       <c r="G449" t="inlineStr">
@@ -12270,23 +12260,19 @@
       </c>
       <c r="B450" t="inlineStr">
         <is>
-          <t>Average Hourly Earnings YoYJAN</t>
+          <t>Participation RateJAN</t>
         </is>
       </c>
       <c r="C450" t="inlineStr"/>
       <c r="D450" t="inlineStr">
         <is>
-          <t>3.9%</t>
-        </is>
-      </c>
-      <c r="E450" t="inlineStr">
-        <is>
-          <t>3.8%</t>
-        </is>
-      </c>
+          <t>62.5%</t>
+        </is>
+      </c>
+      <c r="E450" t="inlineStr"/>
       <c r="F450" t="inlineStr">
         <is>
-          <t>3.9%</t>
+          <t>62.5%</t>
         </is>
       </c>
       <c r="G450" t="inlineStr">
@@ -12303,24 +12289,28 @@
       </c>
       <c r="B451" t="inlineStr">
         <is>
-          <t>Participation RateJAN</t>
+          <t>Average Weekly HoursJAN</t>
         </is>
       </c>
       <c r="C451" t="inlineStr"/>
       <c r="D451" t="inlineStr">
         <is>
-          <t>62.5%</t>
-        </is>
-      </c>
-      <c r="E451" t="inlineStr"/>
+          <t>34.3</t>
+        </is>
+      </c>
+      <c r="E451" t="inlineStr">
+        <is>
+          <t>34.3</t>
+        </is>
+      </c>
       <c r="F451" t="inlineStr">
         <is>
-          <t>62.5%</t>
+          <t>34.3</t>
         </is>
       </c>
       <c r="G451" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
@@ -12332,23 +12322,19 @@
       </c>
       <c r="B452" t="inlineStr">
         <is>
-          <t>Average Weekly HoursJAN</t>
+          <t>Government PayrollsJAN</t>
         </is>
       </c>
       <c r="C452" t="inlineStr"/>
       <c r="D452" t="inlineStr">
         <is>
-          <t>34.3</t>
-        </is>
-      </c>
-      <c r="E452" t="inlineStr">
-        <is>
-          <t>34.3</t>
-        </is>
-      </c>
+          <t>33K</t>
+        </is>
+      </c>
+      <c r="E452" t="inlineStr"/>
       <c r="F452" t="inlineStr">
         <is>
-          <t>34.3</t>
+          <t>25K</t>
         </is>
       </c>
       <c r="G452" t="inlineStr">
@@ -12365,19 +12351,23 @@
       </c>
       <c r="B453" t="inlineStr">
         <is>
-          <t>Government PayrollsJAN</t>
+          <t>Manufacturing PayrollsJAN</t>
         </is>
       </c>
       <c r="C453" t="inlineStr"/>
       <c r="D453" t="inlineStr">
         <is>
-          <t>33K</t>
-        </is>
-      </c>
-      <c r="E453" t="inlineStr"/>
+          <t>-13K</t>
+        </is>
+      </c>
+      <c r="E453" t="inlineStr">
+        <is>
+          <t>-2K</t>
+        </is>
+      </c>
       <c r="F453" t="inlineStr">
         <is>
-          <t>25K</t>
+          <t>-5K</t>
         </is>
       </c>
       <c r="G453" t="inlineStr">
@@ -12394,23 +12384,23 @@
       </c>
       <c r="B454" t="inlineStr">
         <is>
-          <t>Manufacturing PayrollsJAN</t>
+          <t>Nonfarm Payrolls PrivateJAN</t>
         </is>
       </c>
       <c r="C454" t="inlineStr"/>
       <c r="D454" t="inlineStr">
         <is>
-          <t>-13K</t>
+          <t>223K</t>
         </is>
       </c>
       <c r="E454" t="inlineStr">
         <is>
-          <t>-2K</t>
+          <t>141K</t>
         </is>
       </c>
       <c r="F454" t="inlineStr">
         <is>
-          <t>-5K</t>
+          <t>180K</t>
         </is>
       </c>
       <c r="G454" t="inlineStr">
@@ -12427,23 +12417,19 @@
       </c>
       <c r="B455" t="inlineStr">
         <is>
-          <t>Nonfarm Payrolls PrivateJAN</t>
+          <t>U-6 Unemployment RateJAN</t>
         </is>
       </c>
       <c r="C455" t="inlineStr"/>
       <c r="D455" t="inlineStr">
         <is>
-          <t>223K</t>
-        </is>
-      </c>
-      <c r="E455" t="inlineStr">
-        <is>
-          <t>141K</t>
-        </is>
-      </c>
+          <t>7.5%</t>
+        </is>
+      </c>
+      <c r="E455" t="inlineStr"/>
       <c r="F455" t="inlineStr">
         <is>
-          <t>180K</t>
+          <t>7.5%</t>
         </is>
       </c>
       <c r="G455" t="inlineStr">
@@ -12455,50 +12441,54 @@
     <row r="456">
       <c r="A456" t="inlineStr">
         <is>
-          <t>08:30 AM</t>
+          <t>09:25 AM</t>
         </is>
       </c>
       <c r="B456" t="inlineStr">
         <is>
-          <t>U-6 Unemployment RateJAN</t>
+          <t>Fed Bowman Speech</t>
         </is>
       </c>
       <c r="C456" t="inlineStr"/>
-      <c r="D456" t="inlineStr">
-        <is>
-          <t>7.5%</t>
-        </is>
-      </c>
+      <c r="D456" t="inlineStr"/>
       <c r="E456" t="inlineStr"/>
-      <c r="F456" t="inlineStr">
-        <is>
-          <t>7.5%</t>
-        </is>
-      </c>
+      <c r="F456" t="inlineStr"/>
       <c r="G456" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="457">
       <c r="A457" t="inlineStr">
         <is>
-          <t>09:25 AM</t>
+          <t>10:00 AM</t>
         </is>
       </c>
       <c r="B457" t="inlineStr">
         <is>
-          <t>Fed Bowman Speech</t>
+          <t>Michigan Consumer Sentiment PrelFEB</t>
         </is>
       </c>
       <c r="C457" t="inlineStr"/>
-      <c r="D457" t="inlineStr"/>
-      <c r="E457" t="inlineStr"/>
-      <c r="F457" t="inlineStr"/>
+      <c r="D457" t="inlineStr">
+        <is>
+          <t>71.1</t>
+        </is>
+      </c>
+      <c r="E457" t="inlineStr">
+        <is>
+          <t>71.1</t>
+        </is>
+      </c>
+      <c r="F457" t="inlineStr">
+        <is>
+          <t>72</t>
+        </is>
+      </c>
       <c r="G457" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
     </row>
@@ -12510,28 +12500,24 @@
       </c>
       <c r="B458" t="inlineStr">
         <is>
-          <t>Michigan Consumer Sentiment PrelFEB</t>
+          <t>Michigan 5 Year Inflation Expectations PrelFEB</t>
         </is>
       </c>
       <c r="C458" t="inlineStr"/>
       <c r="D458" t="inlineStr">
         <is>
-          <t>71.1</t>
-        </is>
-      </c>
-      <c r="E458" t="inlineStr">
-        <is>
-          <t>71.1</t>
-        </is>
-      </c>
+          <t>3.2%</t>
+        </is>
+      </c>
+      <c r="E458" t="inlineStr"/>
       <c r="F458" t="inlineStr">
         <is>
-          <t>72</t>
+          <t>3.3%</t>
         </is>
       </c>
       <c r="G458" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
     </row>
@@ -12543,19 +12529,23 @@
       </c>
       <c r="B459" t="inlineStr">
         <is>
-          <t>Michigan 5 Year Inflation Expectations PrelFEB</t>
+          <t>Michigan Consumer Expectations PrelFEB</t>
         </is>
       </c>
       <c r="C459" t="inlineStr"/>
       <c r="D459" t="inlineStr">
         <is>
-          <t>3.2%</t>
-        </is>
-      </c>
-      <c r="E459" t="inlineStr"/>
+          <t>69.3</t>
+        </is>
+      </c>
+      <c r="E459" t="inlineStr">
+        <is>
+          <t>70</t>
+        </is>
+      </c>
       <c r="F459" t="inlineStr">
         <is>
-          <t>3.3%</t>
+          <t>69.5</t>
         </is>
       </c>
       <c r="G459" t="inlineStr">
@@ -12572,23 +12562,23 @@
       </c>
       <c r="B460" t="inlineStr">
         <is>
-          <t>Michigan Consumer Expectations PrelFEB</t>
+          <t>Michigan Current Conditions PrelFEB</t>
         </is>
       </c>
       <c r="C460" t="inlineStr"/>
       <c r="D460" t="inlineStr">
         <is>
-          <t>69.3</t>
+          <t>74</t>
         </is>
       </c>
       <c r="E460" t="inlineStr">
         <is>
-          <t>70</t>
+          <t>73</t>
         </is>
       </c>
       <c r="F460" t="inlineStr">
         <is>
-          <t>69.5</t>
+          <t>74.3</t>
         </is>
       </c>
       <c r="G460" t="inlineStr">
@@ -12605,23 +12595,19 @@
       </c>
       <c r="B461" t="inlineStr">
         <is>
-          <t>Michigan Current Conditions PrelFEB</t>
+          <t>Michigan Inflation Expectations PrelFEB</t>
         </is>
       </c>
       <c r="C461" t="inlineStr"/>
       <c r="D461" t="inlineStr">
         <is>
-          <t>74</t>
-        </is>
-      </c>
-      <c r="E461" t="inlineStr">
-        <is>
-          <t>73</t>
-        </is>
-      </c>
+          <t>3.3%</t>
+        </is>
+      </c>
+      <c r="E461" t="inlineStr"/>
       <c r="F461" t="inlineStr">
         <is>
-          <t>74.3</t>
+          <t>3.4%</t>
         </is>
       </c>
       <c r="G461" t="inlineStr">
@@ -12638,19 +12624,23 @@
       </c>
       <c r="B462" t="inlineStr">
         <is>
-          <t>Michigan Inflation Expectations PrelFEB</t>
+          <t>Wholesale Inventories MoMDEC</t>
         </is>
       </c>
       <c r="C462" t="inlineStr"/>
       <c r="D462" t="inlineStr">
         <is>
-          <t>3.3%</t>
-        </is>
-      </c>
-      <c r="E462" t="inlineStr"/>
+          <t>-0.1%</t>
+        </is>
+      </c>
+      <c r="E462" t="inlineStr">
+        <is>
+          <t>-0.5%</t>
+        </is>
+      </c>
       <c r="F462" t="inlineStr">
         <is>
-          <t>3.4%</t>
+          <t>-0.5%</t>
         </is>
       </c>
       <c r="G462" t="inlineStr">
@@ -12662,54 +12652,46 @@
     <row r="463">
       <c r="A463" t="inlineStr">
         <is>
-          <t>10:00 AM</t>
+          <t>12:00 PM</t>
         </is>
       </c>
       <c r="B463" t="inlineStr">
         <is>
-          <t>Wholesale Inventories MoMDEC</t>
+          <t>Fed Kugler Speech</t>
         </is>
       </c>
       <c r="C463" t="inlineStr"/>
-      <c r="D463" t="inlineStr">
-        <is>
-          <t>-0.1%</t>
-        </is>
-      </c>
-      <c r="E463" t="inlineStr">
-        <is>
-          <t>-0.5%</t>
-        </is>
-      </c>
-      <c r="F463" t="inlineStr">
-        <is>
-          <t>-0.5%</t>
-        </is>
-      </c>
+      <c r="D463" t="inlineStr"/>
+      <c r="E463" t="inlineStr"/>
+      <c r="F463" t="inlineStr"/>
       <c r="G463" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="464">
       <c r="A464" t="inlineStr">
         <is>
-          <t>12:00 PM</t>
+          <t>01:00 PM</t>
         </is>
       </c>
       <c r="B464" t="inlineStr">
         <is>
-          <t>Fed Kugler Speech</t>
+          <t>Baker Hughes Oil Rig CountFEB/07</t>
         </is>
       </c>
       <c r="C464" t="inlineStr"/>
-      <c r="D464" t="inlineStr"/>
+      <c r="D464" t="inlineStr">
+        <is>
+          <t>479</t>
+        </is>
+      </c>
       <c r="E464" t="inlineStr"/>
       <c r="F464" t="inlineStr"/>
       <c r="G464" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
@@ -12721,13 +12703,13 @@
       </c>
       <c r="B465" t="inlineStr">
         <is>
-          <t>Baker Hughes Oil Rig CountFEB/07</t>
+          <t>Baker Hughes Total Rigs CountFEB/07</t>
         </is>
       </c>
       <c r="C465" t="inlineStr"/>
       <c r="D465" t="inlineStr">
         <is>
-          <t>479</t>
+          <t>582</t>
         </is>
       </c>
       <c r="E465" t="inlineStr"/>
@@ -12741,22 +12723,30 @@
     <row r="466">
       <c r="A466" t="inlineStr">
         <is>
-          <t>01:00 PM</t>
+          <t>03:00 PM</t>
         </is>
       </c>
       <c r="B466" t="inlineStr">
         <is>
-          <t>Baker Hughes Total Rigs CountFEB/07</t>
+          <t>Consumer Credit ChangeDEC</t>
         </is>
       </c>
       <c r="C466" t="inlineStr"/>
       <c r="D466" t="inlineStr">
         <is>
-          <t>582</t>
-        </is>
-      </c>
-      <c r="E466" t="inlineStr"/>
-      <c r="F466" t="inlineStr"/>
+          <t>$-7.49B</t>
+        </is>
+      </c>
+      <c r="E466" t="inlineStr">
+        <is>
+          <t>$12.35B</t>
+        </is>
+      </c>
+      <c r="F466" t="inlineStr">
+        <is>
+          <t>$ 18B</t>
+        </is>
+      </c>
       <c r="G466" t="inlineStr">
         <is>
           <t>3</t>
@@ -12764,32 +12754,20 @@
       </c>
     </row>
     <row r="467">
-      <c r="A467" t="inlineStr">
-        <is>
-          <t>03:00 PM</t>
-        </is>
-      </c>
+      <c r="A467" t="inlineStr"/>
       <c r="B467" t="inlineStr">
         <is>
-          <t>Consumer Credit ChangeDEC</t>
+          <t>Used Car Prices MoMJAN</t>
         </is>
       </c>
       <c r="C467" t="inlineStr"/>
       <c r="D467" t="inlineStr">
         <is>
-          <t>$-7.49B</t>
-        </is>
-      </c>
-      <c r="E467" t="inlineStr">
-        <is>
-          <t>$12.35B</t>
-        </is>
-      </c>
-      <c r="F467" t="inlineStr">
-        <is>
-          <t>$ 18B</t>
-        </is>
-      </c>
+          <t>-0.3%</t>
+        </is>
+      </c>
+      <c r="E467" t="inlineStr"/>
+      <c r="F467" t="inlineStr"/>
       <c r="G467" t="inlineStr">
         <is>
           <t>3</t>
@@ -12800,13 +12778,13 @@
       <c r="A468" t="inlineStr"/>
       <c r="B468" t="inlineStr">
         <is>
-          <t>Used Car Prices MoMJAN</t>
+          <t>Used Car Prices YoYJAN</t>
         </is>
       </c>
       <c r="C468" t="inlineStr"/>
       <c r="D468" t="inlineStr">
         <is>
-          <t>-0.3%</t>
+          <t>0.4%</t>
         </is>
       </c>
       <c r="E468" t="inlineStr"/>
@@ -12818,54 +12796,58 @@
       </c>
     </row>
     <row r="469">
-      <c r="A469" t="inlineStr"/>
-      <c r="B469" t="inlineStr">
-        <is>
-          <t>Used Car Prices YoYJAN</t>
-        </is>
-      </c>
+      <c r="A469" t="inlineStr">
+        <is>
+          <t>Monday February 10 2025</t>
+        </is>
+      </c>
+      <c r="B469" t="inlineStr"/>
       <c r="C469" t="inlineStr"/>
-      <c r="D469" t="inlineStr">
-        <is>
-          <t>0.4%</t>
-        </is>
-      </c>
+      <c r="D469" t="inlineStr"/>
       <c r="E469" t="inlineStr"/>
       <c r="F469" t="inlineStr"/>
-      <c r="G469" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
+      <c r="G469" t="inlineStr"/>
     </row>
     <row r="470">
       <c r="A470" t="inlineStr">
         <is>
-          <t>Monday February 10 2025</t>
-        </is>
-      </c>
-      <c r="B470" t="inlineStr"/>
+          <t>11:00 AM</t>
+        </is>
+      </c>
+      <c r="B470" t="inlineStr">
+        <is>
+          <t>Consumer Inflation ExpectationsJAN</t>
+        </is>
+      </c>
       <c r="C470" t="inlineStr"/>
-      <c r="D470" t="inlineStr"/>
+      <c r="D470" t="inlineStr">
+        <is>
+          <t>3%</t>
+        </is>
+      </c>
       <c r="E470" t="inlineStr"/>
       <c r="F470" t="inlineStr"/>
-      <c r="G470" t="inlineStr"/>
+      <c r="G470" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
     </row>
     <row r="471">
       <c r="A471" t="inlineStr">
         <is>
-          <t>11:00 AM</t>
+          <t>11:30 AM</t>
         </is>
       </c>
       <c r="B471" t="inlineStr">
         <is>
-          <t>Consumer Inflation ExpectationsJAN</t>
+          <t>3-Month Bill Auction</t>
         </is>
       </c>
       <c r="C471" t="inlineStr"/>
       <c r="D471" t="inlineStr">
         <is>
-          <t>3%</t>
+          <t>4.22%</t>
         </is>
       </c>
       <c r="E471" t="inlineStr"/>
@@ -12884,13 +12866,13 @@
       </c>
       <c r="B472" t="inlineStr">
         <is>
-          <t>3-Month Bill Auction</t>
+          <t>6-Month Bill Auction</t>
         </is>
       </c>
       <c r="C472" t="inlineStr"/>
       <c r="D472" t="inlineStr">
         <is>
-          <t>4.22%</t>
+          <t>4.155%</t>
         </is>
       </c>
       <c r="E472" t="inlineStr"/>
@@ -12904,104 +12886,100 @@
     <row r="473">
       <c r="A473" t="inlineStr">
         <is>
-          <t>11:30 AM</t>
-        </is>
-      </c>
-      <c r="B473" t="inlineStr">
-        <is>
-          <t>6-Month Bill Auction</t>
-        </is>
-      </c>
+          <t>Tuesday February 11 2025</t>
+        </is>
+      </c>
+      <c r="B473" t="inlineStr"/>
       <c r="C473" t="inlineStr"/>
-      <c r="D473" t="inlineStr">
-        <is>
-          <t>4.155%</t>
-        </is>
-      </c>
+      <c r="D473" t="inlineStr"/>
       <c r="E473" t="inlineStr"/>
       <c r="F473" t="inlineStr"/>
-      <c r="G473" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
+      <c r="G473" t="inlineStr"/>
     </row>
     <row r="474">
       <c r="A474" t="inlineStr">
         <is>
-          <t>Tuesday February 11 2025</t>
-        </is>
-      </c>
-      <c r="B474" t="inlineStr"/>
+          <t>06:00 AM</t>
+        </is>
+      </c>
+      <c r="B474" t="inlineStr">
+        <is>
+          <t>NFIB Business Optimism IndexJAN</t>
+        </is>
+      </c>
       <c r="C474" t="inlineStr"/>
-      <c r="D474" t="inlineStr"/>
+      <c r="D474" t="inlineStr">
+        <is>
+          <t>105.1</t>
+        </is>
+      </c>
       <c r="E474" t="inlineStr"/>
       <c r="F474" t="inlineStr"/>
-      <c r="G474" t="inlineStr"/>
+      <c r="G474" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
     </row>
     <row r="475">
       <c r="A475" t="inlineStr">
         <is>
-          <t>06:00 AM</t>
+          <t>08:50 AM</t>
         </is>
       </c>
       <c r="B475" t="inlineStr">
         <is>
-          <t>NFIB Business Optimism IndexJAN</t>
+          <t>Fed Hammack Speech</t>
         </is>
       </c>
       <c r="C475" t="inlineStr"/>
-      <c r="D475" t="inlineStr">
-        <is>
-          <t>105.1</t>
-        </is>
-      </c>
+      <c r="D475" t="inlineStr"/>
       <c r="E475" t="inlineStr"/>
       <c r="F475" t="inlineStr"/>
       <c r="G475" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="476">
       <c r="A476" t="inlineStr">
         <is>
-          <t>08:50 AM</t>
+          <t>08:55 AM</t>
         </is>
       </c>
       <c r="B476" t="inlineStr">
         <is>
-          <t>Fed Hammack Speech</t>
+          <t>Redbook YoYFEB/08</t>
         </is>
       </c>
       <c r="C476" t="inlineStr"/>
-      <c r="D476" t="inlineStr"/>
+      <c r="D476" t="inlineStr">
+        <is>
+          <t>5.7%</t>
+        </is>
+      </c>
       <c r="E476" t="inlineStr"/>
       <c r="F476" t="inlineStr"/>
       <c r="G476" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="477">
       <c r="A477" t="inlineStr">
         <is>
-          <t>08:55 AM</t>
+          <t>11:00 AM</t>
         </is>
       </c>
       <c r="B477" t="inlineStr">
         <is>
-          <t>Redbook YoYFEB/08</t>
+          <t>Total Household DebtQ4</t>
         </is>
       </c>
       <c r="C477" t="inlineStr"/>
-      <c r="D477" t="inlineStr">
-        <is>
-          <t>5.7%</t>
-        </is>
-      </c>
+      <c r="D477" t="inlineStr"/>
       <c r="E477" t="inlineStr"/>
       <c r="F477" t="inlineStr"/>
       <c r="G477" t="inlineStr">
@@ -13013,12 +12991,12 @@
     <row r="478">
       <c r="A478" t="inlineStr">
         <is>
-          <t>11:00 AM</t>
+          <t>12:00 PM</t>
         </is>
       </c>
       <c r="B478" t="inlineStr">
         <is>
-          <t>Total Household DebtQ4</t>
+          <t>WASDE Report</t>
         </is>
       </c>
       <c r="C478" t="inlineStr"/>
@@ -13034,12 +13012,12 @@
     <row r="479">
       <c r="A479" t="inlineStr">
         <is>
-          <t>12:00 PM</t>
+          <t>01:00 PM</t>
         </is>
       </c>
       <c r="B479" t="inlineStr">
         <is>
-          <t>WASDE Report</t>
+          <t>3-Year Note Auction</t>
         </is>
       </c>
       <c r="C479" t="inlineStr"/>
@@ -13055,12 +13033,12 @@
     <row r="480">
       <c r="A480" t="inlineStr">
         <is>
-          <t>01:00 PM</t>
+          <t>04:30 PM</t>
         </is>
       </c>
       <c r="B480" t="inlineStr">
         <is>
-          <t>3-Year Note Auction</t>
+          <t>API Crude Oil Stock ChangeFEB/07</t>
         </is>
       </c>
       <c r="C480" t="inlineStr"/>
@@ -13069,43 +13047,47 @@
       <c r="F480" t="inlineStr"/>
       <c r="G480" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="481">
       <c r="A481" t="inlineStr">
         <is>
-          <t>04:30 PM</t>
-        </is>
-      </c>
-      <c r="B481" t="inlineStr">
-        <is>
-          <t>API Crude Oil Stock ChangeFEB/07</t>
-        </is>
-      </c>
+          <t>Wednesday February 12 2025</t>
+        </is>
+      </c>
+      <c r="B481" t="inlineStr"/>
       <c r="C481" t="inlineStr"/>
       <c r="D481" t="inlineStr"/>
       <c r="E481" t="inlineStr"/>
       <c r="F481" t="inlineStr"/>
-      <c r="G481" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
+      <c r="G481" t="inlineStr"/>
     </row>
     <row r="482">
       <c r="A482" t="inlineStr">
         <is>
-          <t>Wednesday February 12 2025</t>
-        </is>
-      </c>
-      <c r="B482" t="inlineStr"/>
+          <t>07:00 AM</t>
+        </is>
+      </c>
+      <c r="B482" t="inlineStr">
+        <is>
+          <t>MBA 30-Year Mortgage RateFEB/07</t>
+        </is>
+      </c>
       <c r="C482" t="inlineStr"/>
-      <c r="D482" t="inlineStr"/>
+      <c r="D482" t="inlineStr">
+        <is>
+          <t>6.97%</t>
+        </is>
+      </c>
       <c r="E482" t="inlineStr"/>
       <c r="F482" t="inlineStr"/>
-      <c r="G482" t="inlineStr"/>
+      <c r="G482" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
     </row>
     <row r="483">
       <c r="A483" t="inlineStr">
@@ -13115,20 +13097,20 @@
       </c>
       <c r="B483" t="inlineStr">
         <is>
-          <t>MBA 30-Year Mortgage RateFEB/07</t>
+          <t>MBA Mortgage ApplicationsFEB/07</t>
         </is>
       </c>
       <c r="C483" t="inlineStr"/>
       <c r="D483" t="inlineStr">
         <is>
-          <t>6.97%</t>
+          <t>2.2%</t>
         </is>
       </c>
       <c r="E483" t="inlineStr"/>
       <c r="F483" t="inlineStr"/>
       <c r="G483" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
@@ -13140,15 +13122,11 @@
       </c>
       <c r="B484" t="inlineStr">
         <is>
-          <t>MBA Mortgage ApplicationsFEB/07</t>
+          <t>MBA Mortgage Market IndexFEB/07</t>
         </is>
       </c>
       <c r="C484" t="inlineStr"/>
-      <c r="D484" t="inlineStr">
-        <is>
-          <t>2.2%</t>
-        </is>
-      </c>
+      <c r="D484" t="inlineStr"/>
       <c r="E484" t="inlineStr"/>
       <c r="F484" t="inlineStr"/>
       <c r="G484" t="inlineStr">
@@ -13165,7 +13143,7 @@
       </c>
       <c r="B485" t="inlineStr">
         <is>
-          <t>MBA Mortgage Market IndexFEB/07</t>
+          <t>MBA Mortgage Refinance IndexFEB/07</t>
         </is>
       </c>
       <c r="C485" t="inlineStr"/>
@@ -13186,11 +13164,15 @@
       </c>
       <c r="B486" t="inlineStr">
         <is>
-          <t>MBA Mortgage Refinance IndexFEB/07</t>
+          <t>MBA Purchase IndexFEB/07</t>
         </is>
       </c>
       <c r="C486" t="inlineStr"/>
-      <c r="D486" t="inlineStr"/>
+      <c r="D486" t="inlineStr">
+        <is>
+          <t>156.7</t>
+        </is>
+      </c>
       <c r="E486" t="inlineStr"/>
       <c r="F486" t="inlineStr"/>
       <c r="G486" t="inlineStr">
@@ -13202,25 +13184,25 @@
     <row r="487">
       <c r="A487" t="inlineStr">
         <is>
-          <t>07:00 AM</t>
+          <t>08:30 AM</t>
         </is>
       </c>
       <c r="B487" t="inlineStr">
         <is>
-          <t>MBA Purchase IndexFEB/07</t>
+          <t>Core Inflation Rate MoMJAN</t>
         </is>
       </c>
       <c r="C487" t="inlineStr"/>
       <c r="D487" t="inlineStr">
         <is>
-          <t>156.7</t>
+          <t>0.2%</t>
         </is>
       </c>
       <c r="E487" t="inlineStr"/>
       <c r="F487" t="inlineStr"/>
       <c r="G487" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1</t>
         </is>
       </c>
     </row>
@@ -13232,15 +13214,11 @@
       </c>
       <c r="B488" t="inlineStr">
         <is>
-          <t>Core Inflation Rate MoMJAN</t>
+          <t>Core Inflation Rate YoYJAN</t>
         </is>
       </c>
       <c r="C488" t="inlineStr"/>
-      <c r="D488" t="inlineStr">
-        <is>
-          <t>0.2%</t>
-        </is>
-      </c>
+      <c r="D488" t="inlineStr"/>
       <c r="E488" t="inlineStr"/>
       <c r="F488" t="inlineStr"/>
       <c r="G488" t="inlineStr">
@@ -13257,7 +13235,7 @@
       </c>
       <c r="B489" t="inlineStr">
         <is>
-          <t>Core Inflation Rate YoYJAN</t>
+          <t>Inflation Rate MoMJAN</t>
         </is>
       </c>
       <c r="C489" t="inlineStr"/>
@@ -13278,11 +13256,15 @@
       </c>
       <c r="B490" t="inlineStr">
         <is>
-          <t>Inflation Rate MoMJAN</t>
+          <t>Inflation Rate YoYJAN</t>
         </is>
       </c>
       <c r="C490" t="inlineStr"/>
-      <c r="D490" t="inlineStr"/>
+      <c r="D490" t="inlineStr">
+        <is>
+          <t>2.9%</t>
+        </is>
+      </c>
       <c r="E490" t="inlineStr"/>
       <c r="F490" t="inlineStr"/>
       <c r="G490" t="inlineStr">
@@ -13299,20 +13281,20 @@
       </c>
       <c r="B491" t="inlineStr">
         <is>
-          <t>Inflation Rate YoYJAN</t>
+          <t>CPIJAN</t>
         </is>
       </c>
       <c r="C491" t="inlineStr"/>
       <c r="D491" t="inlineStr">
         <is>
-          <t>2.9%</t>
+          <t>315.61</t>
         </is>
       </c>
       <c r="E491" t="inlineStr"/>
       <c r="F491" t="inlineStr"/>
       <c r="G491" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
     </row>
@@ -13324,15 +13306,11 @@
       </c>
       <c r="B492" t="inlineStr">
         <is>
-          <t>CPIJAN</t>
+          <t>CPI s.aJAN</t>
         </is>
       </c>
       <c r="C492" t="inlineStr"/>
-      <c r="D492" t="inlineStr">
-        <is>
-          <t>315.61</t>
-        </is>
-      </c>
+      <c r="D492" t="inlineStr"/>
       <c r="E492" t="inlineStr"/>
       <c r="F492" t="inlineStr"/>
       <c r="G492" t="inlineStr">
@@ -13344,12 +13322,12 @@
     <row r="493">
       <c r="A493" t="inlineStr">
         <is>
-          <t>08:30 AM</t>
+          <t>10:00 AM</t>
         </is>
       </c>
       <c r="B493" t="inlineStr">
         <is>
-          <t>CPI s.aJAN</t>
+          <t>Fed Chair Powell Testimony</t>
         </is>
       </c>
       <c r="C493" t="inlineStr"/>
@@ -13358,28 +13336,32 @@
       <c r="F493" t="inlineStr"/>
       <c r="G493" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
     </row>
     <row r="494">
       <c r="A494" t="inlineStr">
         <is>
-          <t>10:00 AM</t>
+          <t>10:30 AM</t>
         </is>
       </c>
       <c r="B494" t="inlineStr">
         <is>
-          <t>Fed Chair Powell Testimony</t>
+          <t>EIA Crude Oil Stocks ChangeFEB/07</t>
         </is>
       </c>
       <c r="C494" t="inlineStr"/>
-      <c r="D494" t="inlineStr"/>
+      <c r="D494" t="inlineStr">
+        <is>
+          <t>8.664M</t>
+        </is>
+      </c>
       <c r="E494" t="inlineStr"/>
       <c r="F494" t="inlineStr"/>
       <c r="G494" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
     </row>
@@ -13391,13 +13373,13 @@
       </c>
       <c r="B495" t="inlineStr">
         <is>
-          <t>EIA Crude Oil Stocks ChangeFEB/07</t>
+          <t>EIA Gasoline Stocks ChangeFEB/07</t>
         </is>
       </c>
       <c r="C495" t="inlineStr"/>
       <c r="D495" t="inlineStr">
         <is>
-          <t>8.664M</t>
+          <t>2.233M</t>
         </is>
       </c>
       <c r="E495" t="inlineStr"/>
@@ -13416,20 +13398,16 @@
       </c>
       <c r="B496" t="inlineStr">
         <is>
-          <t>EIA Gasoline Stocks ChangeFEB/07</t>
+          <t>EIA Crude Oil Imports ChangeFEB/07</t>
         </is>
       </c>
       <c r="C496" t="inlineStr"/>
-      <c r="D496" t="inlineStr">
-        <is>
-          <t>2.233M</t>
-        </is>
-      </c>
+      <c r="D496" t="inlineStr"/>
       <c r="E496" t="inlineStr"/>
       <c r="F496" t="inlineStr"/>
       <c r="G496" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
@@ -13441,7 +13419,7 @@
       </c>
       <c r="B497" t="inlineStr">
         <is>
-          <t>EIA Crude Oil Imports ChangeFEB/07</t>
+          <t>EIA Cushing Crude Oil Stocks ChangeFEB/07</t>
         </is>
       </c>
       <c r="C497" t="inlineStr"/>
@@ -13462,11 +13440,15 @@
       </c>
       <c r="B498" t="inlineStr">
         <is>
-          <t>EIA Cushing Crude Oil Stocks ChangeFEB/07</t>
+          <t>EIA Distillate Fuel Production ChangeFEB/07</t>
         </is>
       </c>
       <c r="C498" t="inlineStr"/>
-      <c r="D498" t="inlineStr"/>
+      <c r="D498" t="inlineStr">
+        <is>
+          <t>-0.186M</t>
+        </is>
+      </c>
       <c r="E498" t="inlineStr"/>
       <c r="F498" t="inlineStr"/>
       <c r="G498" t="inlineStr">
@@ -13483,11 +13465,15 @@
       </c>
       <c r="B499" t="inlineStr">
         <is>
-          <t>EIA Distillate Fuel Production ChangeFEB/07</t>
+          <t>EIA Distillate Stocks ChangeFEB/07</t>
         </is>
       </c>
       <c r="C499" t="inlineStr"/>
-      <c r="D499" t="inlineStr"/>
+      <c r="D499" t="inlineStr">
+        <is>
+          <t>-5.471M</t>
+        </is>
+      </c>
       <c r="E499" t="inlineStr"/>
       <c r="F499" t="inlineStr"/>
       <c r="G499" t="inlineStr">
@@ -13504,15 +13490,11 @@
       </c>
       <c r="B500" t="inlineStr">
         <is>
-          <t>EIA Distillate Stocks ChangeFEB/07</t>
+          <t>EIA Gasoline Production ChangeFEB/07</t>
         </is>
       </c>
       <c r="C500" t="inlineStr"/>
-      <c r="D500" t="inlineStr">
-        <is>
-          <t>-5.471M</t>
-        </is>
-      </c>
+      <c r="D500" t="inlineStr"/>
       <c r="E500" t="inlineStr"/>
       <c r="F500" t="inlineStr"/>
       <c r="G500" t="inlineStr">
@@ -13529,11 +13511,15 @@
       </c>
       <c r="B501" t="inlineStr">
         <is>
-          <t>EIA Gasoline Production ChangeFEB/07</t>
+          <t>EIA Heating Oil Stocks ChangeFEB/07</t>
         </is>
       </c>
       <c r="C501" t="inlineStr"/>
-      <c r="D501" t="inlineStr"/>
+      <c r="D501" t="inlineStr">
+        <is>
+          <t>0.373M</t>
+        </is>
+      </c>
       <c r="E501" t="inlineStr"/>
       <c r="F501" t="inlineStr"/>
       <c r="G501" t="inlineStr">
@@ -13550,15 +13536,11 @@
       </c>
       <c r="B502" t="inlineStr">
         <is>
-          <t>EIA Heating Oil Stocks ChangeFEB/07</t>
+          <t>EIA Refinery Crude Runs ChangeFEB/07</t>
         </is>
       </c>
       <c r="C502" t="inlineStr"/>
-      <c r="D502" t="inlineStr">
-        <is>
-          <t>0.373M</t>
-        </is>
-      </c>
+      <c r="D502" t="inlineStr"/>
       <c r="E502" t="inlineStr"/>
       <c r="F502" t="inlineStr"/>
       <c r="G502" t="inlineStr">
@@ -13570,12 +13552,12 @@
     <row r="503">
       <c r="A503" t="inlineStr">
         <is>
-          <t>10:30 AM</t>
+          <t>11:30 AM</t>
         </is>
       </c>
       <c r="B503" t="inlineStr">
         <is>
-          <t>EIA Refinery Crude Runs ChangeFEB/07</t>
+          <t>17-Week Bill Auction</t>
         </is>
       </c>
       <c r="C503" t="inlineStr"/>
@@ -13591,12 +13573,12 @@
     <row r="504">
       <c r="A504" t="inlineStr">
         <is>
-          <t>11:30 AM</t>
+          <t>12:00 PM</t>
         </is>
       </c>
       <c r="B504" t="inlineStr">
         <is>
-          <t>17-Week Bill Auction</t>
+          <t>Fed Bostic Speech</t>
         </is>
       </c>
       <c r="C504" t="inlineStr"/>
@@ -13605,97 +13587,101 @@
       <c r="F504" t="inlineStr"/>
       <c r="G504" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="505">
       <c r="A505" t="inlineStr">
         <is>
-          <t>12:00 PM</t>
+          <t>01:00 PM</t>
         </is>
       </c>
       <c r="B505" t="inlineStr">
         <is>
-          <t>Fed Bostic Speech</t>
+          <t>10-Year Note Auction</t>
         </is>
       </c>
       <c r="C505" t="inlineStr"/>
-      <c r="D505" t="inlineStr"/>
+      <c r="D505" t="inlineStr">
+        <is>
+          <t>4.68%</t>
+        </is>
+      </c>
       <c r="E505" t="inlineStr"/>
       <c r="F505" t="inlineStr"/>
       <c r="G505" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="506">
       <c r="A506" t="inlineStr">
         <is>
-          <t>01:00 PM</t>
+          <t>02:00 PM</t>
         </is>
       </c>
       <c r="B506" t="inlineStr">
         <is>
-          <t>10-Year Note Auction</t>
+          <t>Monthly Budget StatementJAN</t>
         </is>
       </c>
       <c r="C506" t="inlineStr"/>
       <c r="D506" t="inlineStr">
         <is>
-          <t>4.68%</t>
+          <t>$-87B</t>
         </is>
       </c>
       <c r="E506" t="inlineStr"/>
-      <c r="F506" t="inlineStr"/>
+      <c r="F506" t="inlineStr">
+        <is>
+          <t>$-87.0B</t>
+        </is>
+      </c>
       <c r="G506" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="507">
       <c r="A507" t="inlineStr">
         <is>
-          <t>02:00 PM</t>
-        </is>
-      </c>
-      <c r="B507" t="inlineStr">
-        <is>
-          <t>Monthly Budget StatementJAN</t>
-        </is>
-      </c>
+          <t>Thursday February 13 2025</t>
+        </is>
+      </c>
+      <c r="B507" t="inlineStr"/>
       <c r="C507" t="inlineStr"/>
-      <c r="D507" t="inlineStr">
-        <is>
-          <t>$-87B</t>
-        </is>
-      </c>
+      <c r="D507" t="inlineStr"/>
       <c r="E507" t="inlineStr"/>
-      <c r="F507" t="inlineStr">
-        <is>
-          <t>$-87.0B</t>
-        </is>
-      </c>
-      <c r="G507" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
+      <c r="F507" t="inlineStr"/>
+      <c r="G507" t="inlineStr"/>
     </row>
     <row r="508">
       <c r="A508" t="inlineStr">
         <is>
-          <t>Thursday February 13 2025</t>
-        </is>
-      </c>
-      <c r="B508" t="inlineStr"/>
+          <t>08:30 AM</t>
+        </is>
+      </c>
+      <c r="B508" t="inlineStr">
+        <is>
+          <t>PPI MoMJAN</t>
+        </is>
+      </c>
       <c r="C508" t="inlineStr"/>
-      <c r="D508" t="inlineStr"/>
+      <c r="D508" t="inlineStr">
+        <is>
+          <t>0.2%</t>
+        </is>
+      </c>
       <c r="E508" t="inlineStr"/>
       <c r="F508" t="inlineStr"/>
-      <c r="G508" t="inlineStr"/>
+      <c r="G508" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
     </row>
     <row r="509">
       <c r="A509" t="inlineStr">
@@ -13705,20 +13691,20 @@
       </c>
       <c r="B509" t="inlineStr">
         <is>
-          <t>PPI MoMJAN</t>
+          <t>Core PPI MoMJAN</t>
         </is>
       </c>
       <c r="C509" t="inlineStr"/>
       <c r="D509" t="inlineStr">
         <is>
-          <t>0.2%</t>
+          <t>0%</t>
         </is>
       </c>
       <c r="E509" t="inlineStr"/>
       <c r="F509" t="inlineStr"/>
       <c r="G509" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
     </row>
@@ -13730,15 +13716,11 @@
       </c>
       <c r="B510" t="inlineStr">
         <is>
-          <t>Core PPI MoMJAN</t>
+          <t>Initial Jobless ClaimsFEB/08</t>
         </is>
       </c>
       <c r="C510" t="inlineStr"/>
-      <c r="D510" t="inlineStr">
-        <is>
-          <t>0%</t>
-        </is>
-      </c>
+      <c r="D510" t="inlineStr"/>
       <c r="E510" t="inlineStr"/>
       <c r="F510" t="inlineStr"/>
       <c r="G510" t="inlineStr">
@@ -13755,7 +13737,7 @@
       </c>
       <c r="B511" t="inlineStr">
         <is>
-          <t>Initial Jobless ClaimsFEB/08</t>
+          <t>Continuing Jobless ClaimsFEB/01</t>
         </is>
       </c>
       <c r="C511" t="inlineStr"/>
@@ -13764,7 +13746,7 @@
       <c r="F511" t="inlineStr"/>
       <c r="G511" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
@@ -13776,11 +13758,15 @@
       </c>
       <c r="B512" t="inlineStr">
         <is>
-          <t>Continuing Jobless ClaimsFEB/01</t>
+          <t>Core PPI YoYJAN</t>
         </is>
       </c>
       <c r="C512" t="inlineStr"/>
-      <c r="D512" t="inlineStr"/>
+      <c r="D512" t="inlineStr">
+        <is>
+          <t>3.5%</t>
+        </is>
+      </c>
       <c r="E512" t="inlineStr"/>
       <c r="F512" t="inlineStr"/>
       <c r="G512" t="inlineStr">
@@ -13797,15 +13783,11 @@
       </c>
       <c r="B513" t="inlineStr">
         <is>
-          <t>Core PPI YoYJAN</t>
+          <t>Jobless Claims 4-week AverageFEB/08</t>
         </is>
       </c>
       <c r="C513" t="inlineStr"/>
-      <c r="D513" t="inlineStr">
-        <is>
-          <t>3.5%</t>
-        </is>
-      </c>
+      <c r="D513" t="inlineStr"/>
       <c r="E513" t="inlineStr"/>
       <c r="F513" t="inlineStr"/>
       <c r="G513" t="inlineStr">
@@ -13822,11 +13804,15 @@
       </c>
       <c r="B514" t="inlineStr">
         <is>
-          <t>Jobless Claims 4-week AverageFEB/08</t>
+          <t>PPIJAN</t>
         </is>
       </c>
       <c r="C514" t="inlineStr"/>
-      <c r="D514" t="inlineStr"/>
+      <c r="D514" t="inlineStr">
+        <is>
+          <t>146.842</t>
+        </is>
+      </c>
       <c r="E514" t="inlineStr"/>
       <c r="F514" t="inlineStr"/>
       <c r="G514" t="inlineStr">
@@ -13843,13 +13829,13 @@
       </c>
       <c r="B515" t="inlineStr">
         <is>
-          <t>PPIJAN</t>
+          <t>PPI Ex Food, Energy and Trade MoMJAN</t>
         </is>
       </c>
       <c r="C515" t="inlineStr"/>
       <c r="D515" t="inlineStr">
         <is>
-          <t>146.842</t>
+          <t>0.1%</t>
         </is>
       </c>
       <c r="E515" t="inlineStr"/>
@@ -13868,13 +13854,13 @@
       </c>
       <c r="B516" t="inlineStr">
         <is>
-          <t>PPI Ex Food, Energy and Trade MoMJAN</t>
+          <t>PPI Ex Food, Energy and Trade YoYJAN</t>
         </is>
       </c>
       <c r="C516" t="inlineStr"/>
       <c r="D516" t="inlineStr">
         <is>
-          <t>0.1%</t>
+          <t>3.3%</t>
         </is>
       </c>
       <c r="E516" t="inlineStr"/>
@@ -13893,7 +13879,7 @@
       </c>
       <c r="B517" t="inlineStr">
         <is>
-          <t>PPI Ex Food, Energy and Trade YoYJAN</t>
+          <t>PPI YoYJAN</t>
         </is>
       </c>
       <c r="C517" t="inlineStr"/>
@@ -13913,20 +13899,16 @@
     <row r="518">
       <c r="A518" t="inlineStr">
         <is>
-          <t>08:30 AM</t>
+          <t>10:30 AM</t>
         </is>
       </c>
       <c r="B518" t="inlineStr">
         <is>
-          <t>PPI YoYJAN</t>
+          <t>EIA Natural Gas Stocks ChangeFEB/07</t>
         </is>
       </c>
       <c r="C518" t="inlineStr"/>
-      <c r="D518" t="inlineStr">
-        <is>
-          <t>3.3%</t>
-        </is>
-      </c>
+      <c r="D518" t="inlineStr"/>
       <c r="E518" t="inlineStr"/>
       <c r="F518" t="inlineStr"/>
       <c r="G518" t="inlineStr">
@@ -13938,12 +13920,12 @@
     <row r="519">
       <c r="A519" t="inlineStr">
         <is>
-          <t>10:30 AM</t>
+          <t>11:30 AM</t>
         </is>
       </c>
       <c r="B519" t="inlineStr">
         <is>
-          <t>EIA Natural Gas Stocks ChangeFEB/07</t>
+          <t>4-Week Bill Auction</t>
         </is>
       </c>
       <c r="C519" t="inlineStr"/>
@@ -13964,7 +13946,7 @@
       </c>
       <c r="B520" t="inlineStr">
         <is>
-          <t>4-Week Bill Auction</t>
+          <t>8-Week Bill Auction</t>
         </is>
       </c>
       <c r="C520" t="inlineStr"/>
@@ -13980,12 +13962,12 @@
     <row r="521">
       <c r="A521" t="inlineStr">
         <is>
-          <t>11:30 AM</t>
+          <t>12:00 PM</t>
         </is>
       </c>
       <c r="B521" t="inlineStr">
         <is>
-          <t>8-Week Bill Auction</t>
+          <t>15-Year Mortgage RateFEB/13</t>
         </is>
       </c>
       <c r="C521" t="inlineStr"/>
@@ -14006,7 +13988,7 @@
       </c>
       <c r="B522" t="inlineStr">
         <is>
-          <t>15-Year Mortgage RateFEB/13</t>
+          <t>30-Year Mortgage RateFEB/13</t>
         </is>
       </c>
       <c r="C522" t="inlineStr"/>
@@ -14022,16 +14004,20 @@
     <row r="523">
       <c r="A523" t="inlineStr">
         <is>
-          <t>12:00 PM</t>
+          <t>01:00 PM</t>
         </is>
       </c>
       <c r="B523" t="inlineStr">
         <is>
-          <t>30-Year Mortgage RateFEB/13</t>
+          <t>30-Year Bond Auction</t>
         </is>
       </c>
       <c r="C523" t="inlineStr"/>
-      <c r="D523" t="inlineStr"/>
+      <c r="D523" t="inlineStr">
+        <is>
+          <t>4.913%</t>
+        </is>
+      </c>
       <c r="E523" t="inlineStr"/>
       <c r="F523" t="inlineStr"/>
       <c r="G523" t="inlineStr">
@@ -14043,20 +14029,16 @@
     <row r="524">
       <c r="A524" t="inlineStr">
         <is>
-          <t>01:00 PM</t>
+          <t>04:30 PM</t>
         </is>
       </c>
       <c r="B524" t="inlineStr">
         <is>
-          <t>30-Year Bond Auction</t>
+          <t>Fed Balance SheetFEB/12</t>
         </is>
       </c>
       <c r="C524" t="inlineStr"/>
-      <c r="D524" t="inlineStr">
-        <is>
-          <t>4.913%</t>
-        </is>
-      </c>
+      <c r="D524" t="inlineStr"/>
       <c r="E524" t="inlineStr"/>
       <c r="F524" t="inlineStr"/>
       <c r="G524" t="inlineStr">
@@ -14068,36 +14050,40 @@
     <row r="525">
       <c r="A525" t="inlineStr">
         <is>
-          <t>04:30 PM</t>
-        </is>
-      </c>
-      <c r="B525" t="inlineStr">
-        <is>
-          <t>Fed Balance SheetFEB/12</t>
-        </is>
-      </c>
+          <t>Friday February 14 2025</t>
+        </is>
+      </c>
+      <c r="B525" t="inlineStr"/>
       <c r="C525" t="inlineStr"/>
       <c r="D525" t="inlineStr"/>
       <c r="E525" t="inlineStr"/>
       <c r="F525" t="inlineStr"/>
-      <c r="G525" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
+      <c r="G525" t="inlineStr"/>
     </row>
     <row r="526">
       <c r="A526" t="inlineStr">
         <is>
-          <t>Friday February 14 2025</t>
-        </is>
-      </c>
-      <c r="B526" t="inlineStr"/>
+          <t>08:30 AM</t>
+        </is>
+      </c>
+      <c r="B526" t="inlineStr">
+        <is>
+          <t>Retail Sales MoMJAN</t>
+        </is>
+      </c>
       <c r="C526" t="inlineStr"/>
-      <c r="D526" t="inlineStr"/>
+      <c r="D526" t="inlineStr">
+        <is>
+          <t>0.4%</t>
+        </is>
+      </c>
       <c r="E526" t="inlineStr"/>
       <c r="F526" t="inlineStr"/>
-      <c r="G526" t="inlineStr"/>
+      <c r="G526" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
     </row>
     <row r="527">
       <c r="A527" t="inlineStr">
@@ -14107,20 +14093,24 @@
       </c>
       <c r="B527" t="inlineStr">
         <is>
-          <t>Retail Sales MoMJAN</t>
+          <t>Export Prices MoMJAN</t>
         </is>
       </c>
       <c r="C527" t="inlineStr"/>
       <c r="D527" t="inlineStr">
         <is>
-          <t>0.4%</t>
+          <t>0.3%</t>
         </is>
       </c>
       <c r="E527" t="inlineStr"/>
-      <c r="F527" t="inlineStr"/>
+      <c r="F527" t="inlineStr">
+        <is>
+          <t>0.1%</t>
+        </is>
+      </c>
       <c r="G527" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
     </row>
@@ -14132,21 +14122,17 @@
       </c>
       <c r="B528" t="inlineStr">
         <is>
-          <t>Export Prices MoMJAN</t>
+          <t>Import Prices MoMJAN</t>
         </is>
       </c>
       <c r="C528" t="inlineStr"/>
       <c r="D528" t="inlineStr">
         <is>
-          <t>0.3%</t>
+          <t>0.1%</t>
         </is>
       </c>
       <c r="E528" t="inlineStr"/>
-      <c r="F528" t="inlineStr">
-        <is>
-          <t>0.1%</t>
-        </is>
-      </c>
+      <c r="F528" t="inlineStr"/>
       <c r="G528" t="inlineStr">
         <is>
           <t>2</t>
@@ -14161,13 +14147,13 @@
       </c>
       <c r="B529" t="inlineStr">
         <is>
-          <t>Import Prices MoMJAN</t>
+          <t>Retail Sales Control Group MoMJAN</t>
         </is>
       </c>
       <c r="C529" t="inlineStr"/>
       <c r="D529" t="inlineStr">
         <is>
-          <t>0.1%</t>
+          <t>0.7%</t>
         </is>
       </c>
       <c r="E529" t="inlineStr"/>
@@ -14186,13 +14172,13 @@
       </c>
       <c r="B530" t="inlineStr">
         <is>
-          <t>Retail Sales Control Group MoMJAN</t>
+          <t>Retail Sales Ex Autos MoMJAN</t>
         </is>
       </c>
       <c r="C530" t="inlineStr"/>
       <c r="D530" t="inlineStr">
         <is>
-          <t>0.7%</t>
+          <t>0.4%</t>
         </is>
       </c>
       <c r="E530" t="inlineStr"/>
@@ -14211,20 +14197,20 @@
       </c>
       <c r="B531" t="inlineStr">
         <is>
-          <t>Retail Sales Ex Autos MoMJAN</t>
+          <t>Export Prices YoYJAN</t>
         </is>
       </c>
       <c r="C531" t="inlineStr"/>
       <c r="D531" t="inlineStr">
         <is>
-          <t>0.4%</t>
+          <t>1.8%</t>
         </is>
       </c>
       <c r="E531" t="inlineStr"/>
       <c r="F531" t="inlineStr"/>
       <c r="G531" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
@@ -14236,13 +14222,13 @@
       </c>
       <c r="B532" t="inlineStr">
         <is>
-          <t>Export Prices YoYJAN</t>
+          <t>Import Prices YoYJAN</t>
         </is>
       </c>
       <c r="C532" t="inlineStr"/>
       <c r="D532" t="inlineStr">
         <is>
-          <t>1.8%</t>
+          <t>2.2%</t>
         </is>
       </c>
       <c r="E532" t="inlineStr"/>
@@ -14261,13 +14247,13 @@
       </c>
       <c r="B533" t="inlineStr">
         <is>
-          <t>Import Prices YoYJAN</t>
+          <t>Retail Sales Ex Gas/Autos MoMJAN</t>
         </is>
       </c>
       <c r="C533" t="inlineStr"/>
       <c r="D533" t="inlineStr">
         <is>
-          <t>2.2%</t>
+          <t>0.3%</t>
         </is>
       </c>
       <c r="E533" t="inlineStr"/>
@@ -14286,13 +14272,13 @@
       </c>
       <c r="B534" t="inlineStr">
         <is>
-          <t>Retail Sales Ex Gas/Autos MoMJAN</t>
+          <t>Retail Sales YoYJAN</t>
         </is>
       </c>
       <c r="C534" t="inlineStr"/>
       <c r="D534" t="inlineStr">
         <is>
-          <t>0.3%</t>
+          <t>3.9%</t>
         </is>
       </c>
       <c r="E534" t="inlineStr"/>
@@ -14306,25 +14292,25 @@
     <row r="535">
       <c r="A535" t="inlineStr">
         <is>
-          <t>08:30 AM</t>
+          <t>09:15 AM</t>
         </is>
       </c>
       <c r="B535" t="inlineStr">
         <is>
-          <t>Retail Sales YoYJAN</t>
+          <t>Industrial Production MoMJAN</t>
         </is>
       </c>
       <c r="C535" t="inlineStr"/>
       <c r="D535" t="inlineStr">
         <is>
-          <t>3.9%</t>
+          <t>0.9%</t>
         </is>
       </c>
       <c r="E535" t="inlineStr"/>
       <c r="F535" t="inlineStr"/>
       <c r="G535" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
@@ -14336,20 +14322,20 @@
       </c>
       <c r="B536" t="inlineStr">
         <is>
-          <t>Industrial Production MoMJAN</t>
+          <t>Capacity UtilizationJAN</t>
         </is>
       </c>
       <c r="C536" t="inlineStr"/>
       <c r="D536" t="inlineStr">
         <is>
-          <t>0.9%</t>
+          <t>77.6%</t>
         </is>
       </c>
       <c r="E536" t="inlineStr"/>
       <c r="F536" t="inlineStr"/>
       <c r="G536" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
@@ -14361,13 +14347,13 @@
       </c>
       <c r="B537" t="inlineStr">
         <is>
-          <t>Capacity UtilizationJAN</t>
+          <t>Industrial Production YoYJAN</t>
         </is>
       </c>
       <c r="C537" t="inlineStr"/>
       <c r="D537" t="inlineStr">
         <is>
-          <t>77.6%</t>
+          <t>0.5%</t>
         </is>
       </c>
       <c r="E537" t="inlineStr"/>
@@ -14386,13 +14372,13 @@
       </c>
       <c r="B538" t="inlineStr">
         <is>
-          <t>Industrial Production YoYJAN</t>
+          <t>Manufacturing Production MoMJAN</t>
         </is>
       </c>
       <c r="C538" t="inlineStr"/>
       <c r="D538" t="inlineStr">
         <is>
-          <t>0.5%</t>
+          <t>0.6%</t>
         </is>
       </c>
       <c r="E538" t="inlineStr"/>
@@ -14411,13 +14397,13 @@
       </c>
       <c r="B539" t="inlineStr">
         <is>
-          <t>Manufacturing Production MoMJAN</t>
+          <t>Manufacturing Production YoYJAN</t>
         </is>
       </c>
       <c r="C539" t="inlineStr"/>
       <c r="D539" t="inlineStr">
         <is>
-          <t>0.6%</t>
+          <t>0%</t>
         </is>
       </c>
       <c r="E539" t="inlineStr"/>
@@ -14431,25 +14417,25 @@
     <row r="540">
       <c r="A540" t="inlineStr">
         <is>
-          <t>09:15 AM</t>
+          <t>10:00 AM</t>
         </is>
       </c>
       <c r="B540" t="inlineStr">
         <is>
-          <t>Manufacturing Production YoYJAN</t>
+          <t>Business Inventories MoMDEC</t>
         </is>
       </c>
       <c r="C540" t="inlineStr"/>
       <c r="D540" t="inlineStr">
         <is>
-          <t>0%</t>
+          <t>0.1%</t>
         </is>
       </c>
       <c r="E540" t="inlineStr"/>
       <c r="F540" t="inlineStr"/>
       <c r="G540" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
@@ -14461,50 +14447,46 @@
       </c>
       <c r="B541" t="inlineStr">
         <is>
-          <t>Business Inventories MoMDEC</t>
+          <t>Retail Inventories Ex Autos MoMDEC</t>
         </is>
       </c>
       <c r="C541" t="inlineStr"/>
       <c r="D541" t="inlineStr">
         <is>
-          <t>0.1%</t>
-        </is>
-      </c>
-      <c r="E541" t="inlineStr"/>
-      <c r="F541" t="inlineStr"/>
+          <t>0.4%</t>
+        </is>
+      </c>
+      <c r="E541" t="inlineStr">
+        <is>
+          <t>0.2%</t>
+        </is>
+      </c>
+      <c r="F541" t="inlineStr">
+        <is>
+          <t>0.2%</t>
+        </is>
+      </c>
       <c r="G541" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="542">
       <c r="A542" t="inlineStr">
         <is>
-          <t>10:00 AM</t>
+          <t>01:00 PM</t>
         </is>
       </c>
       <c r="B542" t="inlineStr">
         <is>
-          <t>Retail Inventories Ex Autos MoMDEC</t>
+          <t>Baker Hughes Oil Rig CountFEB/14</t>
         </is>
       </c>
       <c r="C542" t="inlineStr"/>
-      <c r="D542" t="inlineStr">
-        <is>
-          <t>0.4%</t>
-        </is>
-      </c>
-      <c r="E542" t="inlineStr">
-        <is>
-          <t>0.2%</t>
-        </is>
-      </c>
-      <c r="F542" t="inlineStr">
-        <is>
-          <t>0.2%</t>
-        </is>
-      </c>
+      <c r="D542" t="inlineStr"/>
+      <c r="E542" t="inlineStr"/>
+      <c r="F542" t="inlineStr"/>
       <c r="G542" t="inlineStr">
         <is>
           <t>3</t>
@@ -14519,7 +14501,7 @@
       </c>
       <c r="B543" t="inlineStr">
         <is>
-          <t>Baker Hughes Oil Rig CountFEB/14</t>
+          <t>Baker Hughes Total Rigs CountFEB/14</t>
         </is>
       </c>
       <c r="C543" t="inlineStr"/>
@@ -14535,105 +14517,105 @@
     <row r="544">
       <c r="A544" t="inlineStr">
         <is>
-          <t>01:00 PM</t>
-        </is>
-      </c>
-      <c r="B544" t="inlineStr">
-        <is>
-          <t>Baker Hughes Total Rigs CountFEB/14</t>
-        </is>
-      </c>
+          <t>Monday February 17 2025</t>
+        </is>
+      </c>
+      <c r="B544" t="inlineStr"/>
       <c r="C544" t="inlineStr"/>
       <c r="D544" t="inlineStr"/>
       <c r="E544" t="inlineStr"/>
       <c r="F544" t="inlineStr"/>
-      <c r="G544" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
+      <c r="G544" t="inlineStr"/>
     </row>
     <row r="545">
       <c r="A545" t="inlineStr">
         <is>
-          <t>Monday February 17 2025</t>
-        </is>
-      </c>
-      <c r="B545" t="inlineStr"/>
+          <t>09:30 AM</t>
+        </is>
+      </c>
+      <c r="B545" t="inlineStr">
+        <is>
+          <t>Fed Harker Speech</t>
+        </is>
+      </c>
       <c r="C545" t="inlineStr"/>
       <c r="D545" t="inlineStr"/>
       <c r="E545" t="inlineStr"/>
       <c r="F545" t="inlineStr"/>
-      <c r="G545" t="inlineStr"/>
+      <c r="G545" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
     </row>
     <row r="546">
       <c r="A546" t="inlineStr">
         <is>
-          <t>09:30 AM</t>
-        </is>
-      </c>
-      <c r="B546" t="inlineStr">
-        <is>
-          <t>Fed Harker Speech</t>
-        </is>
-      </c>
+          <t>Tuesday February 18 2025</t>
+        </is>
+      </c>
+      <c r="B546" t="inlineStr"/>
       <c r="C546" t="inlineStr"/>
       <c r="D546" t="inlineStr"/>
       <c r="E546" t="inlineStr"/>
       <c r="F546" t="inlineStr"/>
-      <c r="G546" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
+      <c r="G546" t="inlineStr"/>
     </row>
     <row r="547">
       <c r="A547" t="inlineStr">
         <is>
-          <t>Tuesday February 18 2025</t>
-        </is>
-      </c>
-      <c r="B547" t="inlineStr"/>
+          <t>08:30 AM</t>
+        </is>
+      </c>
+      <c r="B547" t="inlineStr">
+        <is>
+          <t>NY Empire State Manufacturing IndexFEB</t>
+        </is>
+      </c>
       <c r="C547" t="inlineStr"/>
-      <c r="D547" t="inlineStr"/>
+      <c r="D547" t="inlineStr">
+        <is>
+          <t>-12.6</t>
+        </is>
+      </c>
       <c r="E547" t="inlineStr"/>
       <c r="F547" t="inlineStr"/>
-      <c r="G547" t="inlineStr"/>
+      <c r="G547" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
     </row>
     <row r="548">
       <c r="A548" t="inlineStr">
         <is>
-          <t>08:30 AM</t>
+          <t>08:55 AM</t>
         </is>
       </c>
       <c r="B548" t="inlineStr">
         <is>
-          <t>NY Empire State Manufacturing IndexFEB</t>
+          <t>Redbook YoYFEB/15</t>
         </is>
       </c>
       <c r="C548" t="inlineStr"/>
-      <c r="D548" t="inlineStr">
-        <is>
-          <t>-12.6</t>
-        </is>
-      </c>
+      <c r="D548" t="inlineStr"/>
       <c r="E548" t="inlineStr"/>
       <c r="F548" t="inlineStr"/>
       <c r="G548" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="549">
       <c r="A549" t="inlineStr">
         <is>
-          <t>08:55 AM</t>
+          <t>10:00 AM</t>
         </is>
       </c>
       <c r="B549" t="inlineStr">
         <is>
-          <t>Redbook YoYFEB/15</t>
+          <t>NAHB Housing Market IndexFEB</t>
         </is>
       </c>
       <c r="C549" t="inlineStr"/>
@@ -14642,19 +14624,19 @@
       <c r="F549" t="inlineStr"/>
       <c r="G549" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="550">
       <c r="A550" t="inlineStr">
         <is>
-          <t>10:00 AM</t>
+          <t>11:30 AM</t>
         </is>
       </c>
       <c r="B550" t="inlineStr">
         <is>
-          <t>NAHB Housing Market IndexFEB</t>
+          <t>3-Month Bill Auction</t>
         </is>
       </c>
       <c r="C550" t="inlineStr"/>
@@ -14663,7 +14645,7 @@
       <c r="F550" t="inlineStr"/>
       <c r="G550" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
@@ -14675,7 +14657,7 @@
       </c>
       <c r="B551" t="inlineStr">
         <is>
-          <t>3-Month Bill Auction</t>
+          <t>52-Week Bill Auction</t>
         </is>
       </c>
       <c r="C551" t="inlineStr"/>
@@ -14696,7 +14678,7 @@
       </c>
       <c r="B552" t="inlineStr">
         <is>
-          <t>52-Week Bill Auction</t>
+          <t>6-Month Bill Auction</t>
         </is>
       </c>
       <c r="C552" t="inlineStr"/>
@@ -14712,12 +14694,12 @@
     <row r="553">
       <c r="A553" t="inlineStr">
         <is>
-          <t>11:30 AM</t>
+          <t>12:00 PM</t>
         </is>
       </c>
       <c r="B553" t="inlineStr">
         <is>
-          <t>6-Month Bill Auction</t>
+          <t>NOPA Crush Report</t>
         </is>
       </c>
       <c r="C553" t="inlineStr"/>
@@ -14733,21 +14715,25 @@
     <row r="554">
       <c r="A554" t="inlineStr">
         <is>
-          <t>12:00 PM</t>
+          <t>04:00 PM</t>
         </is>
       </c>
       <c r="B554" t="inlineStr">
         <is>
-          <t>NOPA Crush Report</t>
+          <t>Net Long-term TIC FlowsDEC</t>
         </is>
       </c>
       <c r="C554" t="inlineStr"/>
-      <c r="D554" t="inlineStr"/>
+      <c r="D554" t="inlineStr">
+        <is>
+          <t>$79B</t>
+        </is>
+      </c>
       <c r="E554" t="inlineStr"/>
       <c r="F554" t="inlineStr"/>
       <c r="G554" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
@@ -14759,20 +14745,20 @@
       </c>
       <c r="B555" t="inlineStr">
         <is>
-          <t>Net Long-term TIC FlowsDEC</t>
+          <t>Foreign Bond InvestmentDEC</t>
         </is>
       </c>
       <c r="C555" t="inlineStr"/>
       <c r="D555" t="inlineStr">
         <is>
-          <t>$79B</t>
+          <t>$-15.8B</t>
         </is>
       </c>
       <c r="E555" t="inlineStr"/>
       <c r="F555" t="inlineStr"/>
       <c r="G555" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
@@ -14784,13 +14770,13 @@
       </c>
       <c r="B556" t="inlineStr">
         <is>
-          <t>Foreign Bond InvestmentDEC</t>
+          <t>Overall Net Capital FlowsDEC</t>
         </is>
       </c>
       <c r="C556" t="inlineStr"/>
       <c r="D556" t="inlineStr">
         <is>
-          <t>$-15.8B</t>
+          <t>$159.9B</t>
         </is>
       </c>
       <c r="E556" t="inlineStr"/>
@@ -14804,40 +14790,36 @@
     <row r="557">
       <c r="A557" t="inlineStr">
         <is>
-          <t>04:00 PM</t>
-        </is>
-      </c>
-      <c r="B557" t="inlineStr">
-        <is>
-          <t>Overall Net Capital FlowsDEC</t>
-        </is>
-      </c>
+          <t>Wednesday February 19 2025</t>
+        </is>
+      </c>
+      <c r="B557" t="inlineStr"/>
       <c r="C557" t="inlineStr"/>
-      <c r="D557" t="inlineStr">
-        <is>
-          <t>$159.9B</t>
-        </is>
-      </c>
+      <c r="D557" t="inlineStr"/>
       <c r="E557" t="inlineStr"/>
       <c r="F557" t="inlineStr"/>
-      <c r="G557" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
+      <c r="G557" t="inlineStr"/>
     </row>
     <row r="558">
       <c r="A558" t="inlineStr">
         <is>
-          <t>Wednesday February 19 2025</t>
-        </is>
-      </c>
-      <c r="B558" t="inlineStr"/>
+          <t>07:00 AM</t>
+        </is>
+      </c>
+      <c r="B558" t="inlineStr">
+        <is>
+          <t>MBA 30-Year Mortgage RateFEB/14</t>
+        </is>
+      </c>
       <c r="C558" t="inlineStr"/>
       <c r="D558" t="inlineStr"/>
       <c r="E558" t="inlineStr"/>
       <c r="F558" t="inlineStr"/>
-      <c r="G558" t="inlineStr"/>
+      <c r="G558" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
     </row>
     <row r="559">
       <c r="A559" t="inlineStr">
@@ -14847,7 +14829,7 @@
       </c>
       <c r="B559" t="inlineStr">
         <is>
-          <t>MBA 30-Year Mortgage RateFEB/14</t>
+          <t>MBA Mortgage ApplicationsFEB/14</t>
         </is>
       </c>
       <c r="C559" t="inlineStr"/>
@@ -14856,7 +14838,7 @@
       <c r="F559" t="inlineStr"/>
       <c r="G559" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
@@ -14868,7 +14850,7 @@
       </c>
       <c r="B560" t="inlineStr">
         <is>
-          <t>MBA Mortgage ApplicationsFEB/14</t>
+          <t>MBA Mortgage Market IndexFEB/14</t>
         </is>
       </c>
       <c r="C560" t="inlineStr"/>
@@ -14889,7 +14871,7 @@
       </c>
       <c r="B561" t="inlineStr">
         <is>
-          <t>MBA Mortgage Market IndexFEB/14</t>
+          <t>MBA Mortgage Refinance IndexFEB/14</t>
         </is>
       </c>
       <c r="C561" t="inlineStr"/>
@@ -14910,7 +14892,7 @@
       </c>
       <c r="B562" t="inlineStr">
         <is>
-          <t>MBA Mortgage Refinance IndexFEB/14</t>
+          <t>MBA Purchase IndexFEB/14</t>
         </is>
       </c>
       <c r="C562" t="inlineStr"/>
@@ -14926,21 +14908,25 @@
     <row r="563">
       <c r="A563" t="inlineStr">
         <is>
-          <t>07:00 AM</t>
+          <t>08:30 AM</t>
         </is>
       </c>
       <c r="B563" t="inlineStr">
         <is>
-          <t>MBA Purchase IndexFEB/14</t>
+          <t>Building Permits PrelJAN</t>
         </is>
       </c>
       <c r="C563" t="inlineStr"/>
-      <c r="D563" t="inlineStr"/>
+      <c r="D563" t="inlineStr">
+        <is>
+          <t>1.482M</t>
+        </is>
+      </c>
       <c r="E563" t="inlineStr"/>
       <c r="F563" t="inlineStr"/>
       <c r="G563" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1</t>
         </is>
       </c>
     </row>
@@ -14952,13 +14938,13 @@
       </c>
       <c r="B564" t="inlineStr">
         <is>
-          <t>Building Permits PrelJAN</t>
+          <t>Housing StartsJAN</t>
         </is>
       </c>
       <c r="C564" t="inlineStr"/>
       <c r="D564" t="inlineStr">
         <is>
-          <t>1.482M</t>
+          <t>1.499M</t>
         </is>
       </c>
       <c r="E564" t="inlineStr"/>
@@ -14977,20 +14963,16 @@
       </c>
       <c r="B565" t="inlineStr">
         <is>
-          <t>Housing StartsJAN</t>
+          <t>Building Permits MoM PrelJAN</t>
         </is>
       </c>
       <c r="C565" t="inlineStr"/>
-      <c r="D565" t="inlineStr">
-        <is>
-          <t>1.499M</t>
-        </is>
-      </c>
+      <c r="D565" t="inlineStr"/>
       <c r="E565" t="inlineStr"/>
       <c r="F565" t="inlineStr"/>
       <c r="G565" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
     </row>
@@ -15002,7 +14984,7 @@
       </c>
       <c r="B566" t="inlineStr">
         <is>
-          <t>Building Permits MoM PrelJAN</t>
+          <t>Housing Starts MoMJAN</t>
         </is>
       </c>
       <c r="C566" t="inlineStr"/>
@@ -15018,12 +15000,12 @@
     <row r="567">
       <c r="A567" t="inlineStr">
         <is>
-          <t>08:30 AM</t>
+          <t>01:00 PM</t>
         </is>
       </c>
       <c r="B567" t="inlineStr">
         <is>
-          <t>Housing Starts MoMJAN</t>
+          <t>20-Year Bond Auction</t>
         </is>
       </c>
       <c r="C567" t="inlineStr"/>
@@ -15032,19 +15014,19 @@
       <c r="F567" t="inlineStr"/>
       <c r="G567" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="568">
       <c r="A568" t="inlineStr">
         <is>
-          <t>01:00 PM</t>
+          <t>02:00 PM</t>
         </is>
       </c>
       <c r="B568" t="inlineStr">
         <is>
-          <t>20-Year Bond Auction</t>
+          <t>FOMC Minutes</t>
         </is>
       </c>
       <c r="C568" t="inlineStr"/>
@@ -15053,19 +15035,19 @@
       <c r="F568" t="inlineStr"/>
       <c r="G568" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1</t>
         </is>
       </c>
     </row>
     <row r="569">
       <c r="A569" t="inlineStr">
         <is>
-          <t>02:00 PM</t>
+          <t>04:30 PM</t>
         </is>
       </c>
       <c r="B569" t="inlineStr">
         <is>
-          <t>FOMC Minutes</t>
+          <t>API Crude Oil Stock ChangeFEB/14</t>
         </is>
       </c>
       <c r="C569" t="inlineStr"/>
@@ -15074,43 +15056,43 @@
       <c r="F569" t="inlineStr"/>
       <c r="G569" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="570">
       <c r="A570" t="inlineStr">
         <is>
-          <t>04:30 PM</t>
-        </is>
-      </c>
-      <c r="B570" t="inlineStr">
-        <is>
-          <t>API Crude Oil Stock ChangeFEB/14</t>
-        </is>
-      </c>
+          <t>Thursday February 20 2025</t>
+        </is>
+      </c>
+      <c r="B570" t="inlineStr"/>
       <c r="C570" t="inlineStr"/>
       <c r="D570" t="inlineStr"/>
       <c r="E570" t="inlineStr"/>
       <c r="F570" t="inlineStr"/>
-      <c r="G570" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
+      <c r="G570" t="inlineStr"/>
     </row>
     <row r="571">
       <c r="A571" t="inlineStr">
         <is>
-          <t>Thursday February 20 2025</t>
-        </is>
-      </c>
-      <c r="B571" t="inlineStr"/>
+          <t>08:30 AM</t>
+        </is>
+      </c>
+      <c r="B571" t="inlineStr">
+        <is>
+          <t>Initial Jobless ClaimsFEB/15</t>
+        </is>
+      </c>
       <c r="C571" t="inlineStr"/>
       <c r="D571" t="inlineStr"/>
       <c r="E571" t="inlineStr"/>
       <c r="F571" t="inlineStr"/>
-      <c r="G571" t="inlineStr"/>
+      <c r="G571" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
     </row>
     <row r="572">
       <c r="A572" t="inlineStr">
@@ -15120,11 +15102,15 @@
       </c>
       <c r="B572" t="inlineStr">
         <is>
-          <t>Initial Jobless ClaimsFEB/15</t>
+          <t>Philadelphia Fed Manufacturing IndexFEB</t>
         </is>
       </c>
       <c r="C572" t="inlineStr"/>
-      <c r="D572" t="inlineStr"/>
+      <c r="D572" t="inlineStr">
+        <is>
+          <t>44.3</t>
+        </is>
+      </c>
       <c r="E572" t="inlineStr"/>
       <c r="F572" t="inlineStr"/>
       <c r="G572" t="inlineStr">
@@ -15141,20 +15127,16 @@
       </c>
       <c r="B573" t="inlineStr">
         <is>
-          <t>Philadelphia Fed Manufacturing IndexFEB</t>
+          <t>Continuing Jobless ClaimsFEB/08</t>
         </is>
       </c>
       <c r="C573" t="inlineStr"/>
-      <c r="D573" t="inlineStr">
-        <is>
-          <t>44.3</t>
-        </is>
-      </c>
+      <c r="D573" t="inlineStr"/>
       <c r="E573" t="inlineStr"/>
       <c r="F573" t="inlineStr"/>
       <c r="G573" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
@@ -15166,7 +15148,7 @@
       </c>
       <c r="B574" t="inlineStr">
         <is>
-          <t>Continuing Jobless ClaimsFEB/08</t>
+          <t>Jobless Claims 4-week AverageFEB/15</t>
         </is>
       </c>
       <c r="C574" t="inlineStr"/>
@@ -15187,11 +15169,15 @@
       </c>
       <c r="B575" t="inlineStr">
         <is>
-          <t>Jobless Claims 4-week AverageFEB/15</t>
+          <t>Philly Fed Business ConditionsFEB</t>
         </is>
       </c>
       <c r="C575" t="inlineStr"/>
-      <c r="D575" t="inlineStr"/>
+      <c r="D575" t="inlineStr">
+        <is>
+          <t>46.3</t>
+        </is>
+      </c>
       <c r="E575" t="inlineStr"/>
       <c r="F575" t="inlineStr"/>
       <c r="G575" t="inlineStr">
@@ -15208,13 +15194,13 @@
       </c>
       <c r="B576" t="inlineStr">
         <is>
-          <t>Philly Fed Business ConditionsFEB</t>
+          <t>Philly Fed CAPEX IndexFEB</t>
         </is>
       </c>
       <c r="C576" t="inlineStr"/>
       <c r="D576" t="inlineStr">
         <is>
-          <t>46.3</t>
+          <t>39</t>
         </is>
       </c>
       <c r="E576" t="inlineStr"/>
@@ -15233,13 +15219,13 @@
       </c>
       <c r="B577" t="inlineStr">
         <is>
-          <t>Philly Fed CAPEX IndexFEB</t>
+          <t>Philly Fed EmploymentFEB</t>
         </is>
       </c>
       <c r="C577" t="inlineStr"/>
       <c r="D577" t="inlineStr">
         <is>
-          <t>39</t>
+          <t>11.9</t>
         </is>
       </c>
       <c r="E577" t="inlineStr"/>
@@ -15258,13 +15244,13 @@
       </c>
       <c r="B578" t="inlineStr">
         <is>
-          <t>Philly Fed EmploymentFEB</t>
+          <t>Philly Fed New OrdersFEB</t>
         </is>
       </c>
       <c r="C578" t="inlineStr"/>
       <c r="D578" t="inlineStr">
         <is>
-          <t>11.9</t>
+          <t>42.9</t>
         </is>
       </c>
       <c r="E578" t="inlineStr"/>
@@ -15283,13 +15269,13 @@
       </c>
       <c r="B579" t="inlineStr">
         <is>
-          <t>Philly Fed New OrdersFEB</t>
+          <t>Philly Fed Prices PaidFEB</t>
         </is>
       </c>
       <c r="C579" t="inlineStr"/>
       <c r="D579" t="inlineStr">
         <is>
-          <t>42.9</t>
+          <t>31.9</t>
         </is>
       </c>
       <c r="E579" t="inlineStr"/>
@@ -15303,66 +15289,62 @@
     <row r="580">
       <c r="A580" t="inlineStr">
         <is>
-          <t>08:30 AM</t>
+          <t>09:30 AM</t>
         </is>
       </c>
       <c r="B580" t="inlineStr">
         <is>
-          <t>Philly Fed Prices PaidFEB</t>
+          <t>Fed Golsbee Speech</t>
         </is>
       </c>
       <c r="C580" t="inlineStr"/>
-      <c r="D580" t="inlineStr">
-        <is>
-          <t>31.9</t>
-        </is>
-      </c>
+      <c r="D580" t="inlineStr"/>
       <c r="E580" t="inlineStr"/>
       <c r="F580" t="inlineStr"/>
       <c r="G580" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="581">
       <c r="A581" t="inlineStr">
         <is>
-          <t>09:30 AM</t>
+          <t>10:00 AM</t>
         </is>
       </c>
       <c r="B581" t="inlineStr">
         <is>
-          <t>Fed Golsbee Speech</t>
+          <t>CB Leading Index MoMJAN</t>
         </is>
       </c>
       <c r="C581" t="inlineStr"/>
-      <c r="D581" t="inlineStr"/>
+      <c r="D581" t="inlineStr">
+        <is>
+          <t>-0.1%</t>
+        </is>
+      </c>
       <c r="E581" t="inlineStr"/>
       <c r="F581" t="inlineStr"/>
       <c r="G581" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="582">
       <c r="A582" t="inlineStr">
         <is>
-          <t>10:00 AM</t>
+          <t>10:30 AM</t>
         </is>
       </c>
       <c r="B582" t="inlineStr">
         <is>
-          <t>CB Leading Index MoMJAN</t>
+          <t>EIA Natural Gas Stocks ChangeFEB/14</t>
         </is>
       </c>
       <c r="C582" t="inlineStr"/>
-      <c r="D582" t="inlineStr">
-        <is>
-          <t>-0.1%</t>
-        </is>
-      </c>
+      <c r="D582" t="inlineStr"/>
       <c r="E582" t="inlineStr"/>
       <c r="F582" t="inlineStr"/>
       <c r="G582" t="inlineStr">
@@ -15374,12 +15356,12 @@
     <row r="583">
       <c r="A583" t="inlineStr">
         <is>
-          <t>10:30 AM</t>
+          <t>11:00 AM</t>
         </is>
       </c>
       <c r="B583" t="inlineStr">
         <is>
-          <t>EIA Natural Gas Stocks ChangeFEB/14</t>
+          <t>EIA Distillate Stocks ChangeFEB/14</t>
         </is>
       </c>
       <c r="C583" t="inlineStr"/>
@@ -15400,7 +15382,7 @@
       </c>
       <c r="B584" t="inlineStr">
         <is>
-          <t>EIA Distillate Stocks ChangeFEB/14</t>
+          <t>EIA Gasoline Production ChangeFEB/14</t>
         </is>
       </c>
       <c r="C584" t="inlineStr"/>
@@ -15416,12 +15398,12 @@
     <row r="585">
       <c r="A585" t="inlineStr">
         <is>
-          <t>11:00 AM</t>
+          <t>12:00 PM</t>
         </is>
       </c>
       <c r="B585" t="inlineStr">
         <is>
-          <t>EIA Gasoline Production ChangeFEB/14</t>
+          <t>EIA Crude Oil Stocks ChangeFEB/14</t>
         </is>
       </c>
       <c r="C585" t="inlineStr"/>
@@ -15430,7 +15412,7 @@
       <c r="F585" t="inlineStr"/>
       <c r="G585" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
@@ -15442,7 +15424,7 @@
       </c>
       <c r="B586" t="inlineStr">
         <is>
-          <t>EIA Crude Oil Stocks ChangeFEB/14</t>
+          <t>EIA Gasoline Stocks ChangeFEB/14</t>
         </is>
       </c>
       <c r="C586" t="inlineStr"/>
@@ -15463,7 +15445,7 @@
       </c>
       <c r="B587" t="inlineStr">
         <is>
-          <t>EIA Gasoline Stocks ChangeFEB/14</t>
+          <t>Fed Musalem Speech</t>
         </is>
       </c>
       <c r="C587" t="inlineStr"/>
@@ -15484,7 +15466,7 @@
       </c>
       <c r="B588" t="inlineStr">
         <is>
-          <t>Fed Musalem Speech</t>
+          <t>15-Year Mortgage RateFEB/20</t>
         </is>
       </c>
       <c r="C588" t="inlineStr"/>
@@ -15493,7 +15475,7 @@
       <c r="F588" t="inlineStr"/>
       <c r="G588" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
@@ -15505,7 +15487,7 @@
       </c>
       <c r="B589" t="inlineStr">
         <is>
-          <t>15-Year Mortgage RateFEB/20</t>
+          <t>30-Year Mortgage RateFEB/20</t>
         </is>
       </c>
       <c r="C589" t="inlineStr"/>
@@ -15526,7 +15508,7 @@
       </c>
       <c r="B590" t="inlineStr">
         <is>
-          <t>30-Year Mortgage RateFEB/20</t>
+          <t>EIA Crude Oil Imports ChangeFEB/14</t>
         </is>
       </c>
       <c r="C590" t="inlineStr"/>
@@ -15547,7 +15529,7 @@
       </c>
       <c r="B591" t="inlineStr">
         <is>
-          <t>EIA Crude Oil Imports ChangeFEB/14</t>
+          <t>EIA Cushing Crude Oil Stocks ChangeFEB/14</t>
         </is>
       </c>
       <c r="C591" t="inlineStr"/>
@@ -15568,7 +15550,7 @@
       </c>
       <c r="B592" t="inlineStr">
         <is>
-          <t>EIA Cushing Crude Oil Stocks ChangeFEB/14</t>
+          <t>EIA Distillate Fuel Production ChangeFEB/14</t>
         </is>
       </c>
       <c r="C592" t="inlineStr"/>
@@ -15589,7 +15571,7 @@
       </c>
       <c r="B593" t="inlineStr">
         <is>
-          <t>EIA Distillate Fuel Production ChangeFEB/14</t>
+          <t>EIA Heating Oil Stocks ChangeFEB/14</t>
         </is>
       </c>
       <c r="C593" t="inlineStr"/>
@@ -15610,7 +15592,7 @@
       </c>
       <c r="B594" t="inlineStr">
         <is>
-          <t>EIA Heating Oil Stocks ChangeFEB/14</t>
+          <t>EIA Refinery Crude Runs ChangeFEB/14</t>
         </is>
       </c>
       <c r="C594" t="inlineStr"/>
@@ -15626,16 +15608,20 @@
     <row r="595">
       <c r="A595" t="inlineStr">
         <is>
-          <t>12:00 PM</t>
+          <t>01:00 PM</t>
         </is>
       </c>
       <c r="B595" t="inlineStr">
         <is>
-          <t>EIA Refinery Crude Runs ChangeFEB/14</t>
+          <t>30-Year TIPS Auction</t>
         </is>
       </c>
       <c r="C595" t="inlineStr"/>
-      <c r="D595" t="inlineStr"/>
+      <c r="D595" t="inlineStr">
+        <is>
+          <t>2.055%</t>
+        </is>
+      </c>
       <c r="E595" t="inlineStr"/>
       <c r="F595" t="inlineStr"/>
       <c r="G595" t="inlineStr">
@@ -15647,20 +15633,16 @@
     <row r="596">
       <c r="A596" t="inlineStr">
         <is>
-          <t>01:00 PM</t>
+          <t>04:30 PM</t>
         </is>
       </c>
       <c r="B596" t="inlineStr">
         <is>
-          <t>30-Year TIPS Auction</t>
+          <t>Fed Balance SheetFEB/19</t>
         </is>
       </c>
       <c r="C596" t="inlineStr"/>
-      <c r="D596" t="inlineStr">
-        <is>
-          <t>2.055%</t>
-        </is>
-      </c>
+      <c r="D596" t="inlineStr"/>
       <c r="E596" t="inlineStr"/>
       <c r="F596" t="inlineStr"/>
       <c r="G596" t="inlineStr">
@@ -15672,36 +15654,40 @@
     <row r="597">
       <c r="A597" t="inlineStr">
         <is>
-          <t>04:30 PM</t>
-        </is>
-      </c>
-      <c r="B597" t="inlineStr">
-        <is>
-          <t>Fed Balance SheetFEB/19</t>
-        </is>
-      </c>
+          <t>Friday February 21 2025</t>
+        </is>
+      </c>
+      <c r="B597" t="inlineStr"/>
       <c r="C597" t="inlineStr"/>
       <c r="D597" t="inlineStr"/>
       <c r="E597" t="inlineStr"/>
       <c r="F597" t="inlineStr"/>
-      <c r="G597" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
+      <c r="G597" t="inlineStr"/>
     </row>
     <row r="598">
       <c r="A598" t="inlineStr">
         <is>
-          <t>Friday February 21 2025</t>
-        </is>
-      </c>
-      <c r="B598" t="inlineStr"/>
+          <t>09:45 AM</t>
+        </is>
+      </c>
+      <c r="B598" t="inlineStr">
+        <is>
+          <t>S&amp;P Global Composite PMI FlashFEB</t>
+        </is>
+      </c>
       <c r="C598" t="inlineStr"/>
-      <c r="D598" t="inlineStr"/>
+      <c r="D598" t="inlineStr">
+        <is>
+          <t>52.7</t>
+        </is>
+      </c>
       <c r="E598" t="inlineStr"/>
       <c r="F598" t="inlineStr"/>
-      <c r="G598" t="inlineStr"/>
+      <c r="G598" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
     </row>
     <row r="599">
       <c r="A599" t="inlineStr">
@@ -15711,13 +15697,13 @@
       </c>
       <c r="B599" t="inlineStr">
         <is>
-          <t>S&amp;P Global Composite PMI FlashFEB</t>
+          <t>S&amp;P Global Manufacturing PMI FlashFEB</t>
         </is>
       </c>
       <c r="C599" t="inlineStr"/>
       <c r="D599" t="inlineStr">
         <is>
-          <t>52.7</t>
+          <t>51.2</t>
         </is>
       </c>
       <c r="E599" t="inlineStr"/>
@@ -15736,13 +15722,13 @@
       </c>
       <c r="B600" t="inlineStr">
         <is>
-          <t>S&amp;P Global Manufacturing PMI FlashFEB</t>
+          <t>S&amp;P Global Services PMI FlashFEB</t>
         </is>
       </c>
       <c r="C600" t="inlineStr"/>
       <c r="D600" t="inlineStr">
         <is>
-          <t>51.2</t>
+          <t>52.9</t>
         </is>
       </c>
       <c r="E600" t="inlineStr"/>
@@ -15756,25 +15742,21 @@
     <row r="601">
       <c r="A601" t="inlineStr">
         <is>
-          <t>09:45 AM</t>
+          <t>10:00 AM</t>
         </is>
       </c>
       <c r="B601" t="inlineStr">
         <is>
-          <t>S&amp;P Global Services PMI FlashFEB</t>
+          <t>Existing Home SalesJAN</t>
         </is>
       </c>
       <c r="C601" t="inlineStr"/>
-      <c r="D601" t="inlineStr">
-        <is>
-          <t>52.9</t>
-        </is>
-      </c>
+      <c r="D601" t="inlineStr"/>
       <c r="E601" t="inlineStr"/>
       <c r="F601" t="inlineStr"/>
       <c r="G601" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
     </row>
@@ -15786,7 +15768,7 @@
       </c>
       <c r="B602" t="inlineStr">
         <is>
-          <t>Existing Home SalesJAN</t>
+          <t>Existing Home Sales MoMJAN</t>
         </is>
       </c>
       <c r="C602" t="inlineStr"/>
@@ -15795,7 +15777,7 @@
       <c r="F602" t="inlineStr"/>
       <c r="G602" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
     </row>
@@ -15807,7 +15789,7 @@
       </c>
       <c r="B603" t="inlineStr">
         <is>
-          <t>Existing Home Sales MoMJAN</t>
+          <t>Michigan Consumer Sentiment FinalFEB</t>
         </is>
       </c>
       <c r="C603" t="inlineStr"/>
@@ -15828,16 +15810,20 @@
       </c>
       <c r="B604" t="inlineStr">
         <is>
-          <t>Michigan Consumer Sentiment FinalFEB</t>
+          <t>Michigan 5 Year Inflation Expectations FinalFEB</t>
         </is>
       </c>
       <c r="C604" t="inlineStr"/>
-      <c r="D604" t="inlineStr"/>
+      <c r="D604" t="inlineStr">
+        <is>
+          <t>3.2%</t>
+        </is>
+      </c>
       <c r="E604" t="inlineStr"/>
       <c r="F604" t="inlineStr"/>
       <c r="G604" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
@@ -15849,15 +15835,11 @@
       </c>
       <c r="B605" t="inlineStr">
         <is>
-          <t>Michigan 5 Year Inflation Expectations FinalFEB</t>
+          <t>Michigan Consumer Expectations FinalFEB</t>
         </is>
       </c>
       <c r="C605" t="inlineStr"/>
-      <c r="D605" t="inlineStr">
-        <is>
-          <t>3.2%</t>
-        </is>
-      </c>
+      <c r="D605" t="inlineStr"/>
       <c r="E605" t="inlineStr"/>
       <c r="F605" t="inlineStr"/>
       <c r="G605" t="inlineStr">
@@ -15874,7 +15856,7 @@
       </c>
       <c r="B606" t="inlineStr">
         <is>
-          <t>Michigan Consumer Expectations FinalFEB</t>
+          <t>Michigan Current Conditions FinalFEB</t>
         </is>
       </c>
       <c r="C606" t="inlineStr"/>
@@ -15895,11 +15877,15 @@
       </c>
       <c r="B607" t="inlineStr">
         <is>
-          <t>Michigan Current Conditions FinalFEB</t>
+          <t>Michigan Inflation Expectations FinalFEB</t>
         </is>
       </c>
       <c r="C607" t="inlineStr"/>
-      <c r="D607" t="inlineStr"/>
+      <c r="D607" t="inlineStr">
+        <is>
+          <t>3.3%</t>
+        </is>
+      </c>
       <c r="E607" t="inlineStr"/>
       <c r="F607" t="inlineStr"/>
       <c r="G607" t="inlineStr">
@@ -15911,20 +15897,16 @@
     <row r="608">
       <c r="A608" t="inlineStr">
         <is>
-          <t>10:00 AM</t>
+          <t>01:00 PM</t>
         </is>
       </c>
       <c r="B608" t="inlineStr">
         <is>
-          <t>Michigan Inflation Expectations FinalFEB</t>
+          <t>Baker Hughes Oil Rig CountFEB/21</t>
         </is>
       </c>
       <c r="C608" t="inlineStr"/>
-      <c r="D608" t="inlineStr">
-        <is>
-          <t>3.3%</t>
-        </is>
-      </c>
+      <c r="D608" t="inlineStr"/>
       <c r="E608" t="inlineStr"/>
       <c r="F608" t="inlineStr"/>
       <c r="G608" t="inlineStr">
@@ -15941,7 +15923,7 @@
       </c>
       <c r="B609" t="inlineStr">
         <is>
-          <t>Baker Hughes Oil Rig CountFEB/21</t>
+          <t>Baker Hughes Total Rigs CountFEB/21</t>
         </is>
       </c>
       <c r="C609" t="inlineStr"/>
@@ -15957,82 +15939,61 @@
     <row r="610">
       <c r="A610" t="inlineStr">
         <is>
-          <t>01:00 PM</t>
-        </is>
-      </c>
-      <c r="B610" t="inlineStr">
-        <is>
-          <t>Baker Hughes Total Rigs CountFEB/21</t>
-        </is>
-      </c>
+          <t>Monday February 24 2025</t>
+        </is>
+      </c>
+      <c r="B610" t="inlineStr"/>
       <c r="C610" t="inlineStr"/>
       <c r="D610" t="inlineStr"/>
       <c r="E610" t="inlineStr"/>
       <c r="F610" t="inlineStr"/>
-      <c r="G610" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
+      <c r="G610" t="inlineStr"/>
     </row>
     <row r="611">
       <c r="A611" t="inlineStr">
         <is>
-          <t>Monday February 24 2025</t>
-        </is>
-      </c>
-      <c r="B611" t="inlineStr"/>
+          <t>08:30 AM</t>
+        </is>
+      </c>
+      <c r="B611" t="inlineStr">
+        <is>
+          <t>Chicago Fed National Activity IndexJAN</t>
+        </is>
+      </c>
       <c r="C611" t="inlineStr"/>
-      <c r="D611" t="inlineStr"/>
+      <c r="D611" t="inlineStr">
+        <is>
+          <t>0.15</t>
+        </is>
+      </c>
       <c r="E611" t="inlineStr"/>
       <c r="F611" t="inlineStr"/>
-      <c r="G611" t="inlineStr"/>
+      <c r="G611" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
     </row>
     <row r="612">
       <c r="A612" t="inlineStr">
         <is>
-          <t>08:30 AM</t>
+          <t>10:30 AM</t>
         </is>
       </c>
       <c r="B612" t="inlineStr">
         <is>
-          <t>Chicago Fed National Activity IndexJAN</t>
+          <t>Dallas Fed Manufacturing IndexFEB</t>
         </is>
       </c>
       <c r="C612" t="inlineStr"/>
       <c r="D612" t="inlineStr">
         <is>
-          <t>0.15</t>
+          <t>14.1</t>
         </is>
       </c>
       <c r="E612" t="inlineStr"/>
       <c r="F612" t="inlineStr"/>
       <c r="G612" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="613">
-      <c r="A613" t="inlineStr">
-        <is>
-          <t>10:30 AM</t>
-        </is>
-      </c>
-      <c r="B613" t="inlineStr">
-        <is>
-          <t>Dallas Fed Manufacturing IndexFEB</t>
-        </is>
-      </c>
-      <c r="C613" t="inlineStr"/>
-      <c r="D613" t="inlineStr">
-        <is>
-          <t>14.1</t>
-        </is>
-      </c>
-      <c r="E613" t="inlineStr"/>
-      <c r="F613" t="inlineStr"/>
-      <c r="G613" t="inlineStr">
         <is>
           <t>2</t>
         </is>

--- a/Input_data/EST_US_trad_eco_cal_2024-12-28_to_2025-02-24.xlsx
+++ b/Input_data/EST_US_trad_eco_cal_2024-12-28_to_2025-02-24.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G644"/>
+  <dimension ref="A1:G639"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -14489,10 +14489,8 @@
           <t>0.3%</t>
         </is>
       </c>
-      <c r="G536" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="G536" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="537">
@@ -14526,10 +14524,8 @@
           <t>0.1%</t>
         </is>
       </c>
-      <c r="G537" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="G537" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="538">
@@ -14563,10 +14559,8 @@
           <t>215.0K</t>
         </is>
       </c>
-      <c r="G538" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="G538" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="539">
@@ -14600,10 +14594,8 @@
           <t>1875.0K</t>
         </is>
       </c>
-      <c r="G539" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G539" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="540">
@@ -14637,10 +14629,8 @@
           <t>3.5%</t>
         </is>
       </c>
-      <c r="G540" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G540" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="541">
@@ -14670,10 +14660,8 @@
           <t>216.0K</t>
         </is>
       </c>
-      <c r="G541" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G541" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="542">
@@ -14703,10 +14691,8 @@
           <t>147.2</t>
         </is>
       </c>
-      <c r="G542" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G542" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="543">
@@ -14736,10 +14722,8 @@
           <t>0.2%</t>
         </is>
       </c>
-      <c r="G543" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G543" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="544">
@@ -14773,10 +14757,8 @@
           <t>3.3%</t>
         </is>
       </c>
-      <c r="G544" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G544" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="545">
@@ -14810,10 +14792,8 @@
           <t>3.4%</t>
         </is>
       </c>
-      <c r="G545" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G545" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="546">
@@ -14843,10 +14823,8 @@
         </is>
       </c>
       <c r="F546" t="inlineStr"/>
-      <c r="G546" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G546" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="547">
@@ -14872,10 +14850,8 @@
       </c>
       <c r="E547" t="inlineStr"/>
       <c r="F547" t="inlineStr"/>
-      <c r="G547" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G547" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="548">
@@ -14901,10 +14877,8 @@
       </c>
       <c r="E548" t="inlineStr"/>
       <c r="F548" t="inlineStr"/>
-      <c r="G548" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G548" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="549">
@@ -14930,10 +14904,8 @@
       </c>
       <c r="E549" t="inlineStr"/>
       <c r="F549" t="inlineStr"/>
-      <c r="G549" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G549" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="550">
@@ -14959,10 +14931,8 @@
       </c>
       <c r="E550" t="inlineStr"/>
       <c r="F550" t="inlineStr"/>
-      <c r="G550" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G550" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="551">
@@ -14988,10 +14958,8 @@
       </c>
       <c r="E551" t="inlineStr"/>
       <c r="F551" t="inlineStr"/>
-      <c r="G551" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G551" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="552">
@@ -15017,10 +14985,8 @@
       </c>
       <c r="E552" t="inlineStr"/>
       <c r="F552" t="inlineStr"/>
-      <c r="G552" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G552" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="553">
@@ -15046,24 +15012,38 @@
       </c>
       <c r="E553" t="inlineStr"/>
       <c r="F553" t="inlineStr"/>
-      <c r="G553" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G553" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="554">
       <c r="A554" t="inlineStr">
         <is>
-          <t>Friday February 14 2025</t>
-        </is>
-      </c>
-      <c r="B554" t="inlineStr"/>
+          <t>08:30 AM</t>
+        </is>
+      </c>
+      <c r="B554" t="inlineStr">
+        <is>
+          <t>Import Prices YoYJAN</t>
+        </is>
+      </c>
       <c r="C554" t="inlineStr"/>
-      <c r="D554" t="inlineStr"/>
+      <c r="D554" t="inlineStr">
+        <is>
+          <t>2.2%</t>
+        </is>
+      </c>
       <c r="E554" t="inlineStr"/>
-      <c r="F554" t="inlineStr"/>
-      <c r="G554" t="inlineStr"/>
+      <c r="F554" t="inlineStr">
+        <is>
+          <t>2.8%</t>
+        </is>
+      </c>
+      <c r="G554" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
     </row>
     <row r="555">
       <c r="A555" t="inlineStr">
@@ -15073,28 +15053,24 @@
       </c>
       <c r="B555" t="inlineStr">
         <is>
-          <t>Retail Sales MoMJAN</t>
+          <t>Retail Sales Ex Gas/Autos MoMJAN</t>
         </is>
       </c>
       <c r="C555" t="inlineStr"/>
       <c r="D555" t="inlineStr">
         <is>
-          <t>0.4%</t>
-        </is>
-      </c>
-      <c r="E555" t="inlineStr">
-        <is>
-          <t>-0.1%</t>
-        </is>
-      </c>
+          <t>0.3%</t>
+        </is>
+      </c>
+      <c r="E555" t="inlineStr"/>
       <c r="F555" t="inlineStr">
         <is>
-          <t>0%</t>
+          <t>0.2%</t>
         </is>
       </c>
       <c r="G555" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
     </row>
@@ -15106,51 +15082,47 @@
       </c>
       <c r="B556" t="inlineStr">
         <is>
-          <t>Export Prices MoMJAN</t>
+          <t>Retail Sales YoYJAN</t>
         </is>
       </c>
       <c r="C556" t="inlineStr"/>
       <c r="D556" t="inlineStr">
         <is>
-          <t>0.3%</t>
-        </is>
-      </c>
-      <c r="E556" t="inlineStr">
-        <is>
-          <t>0.3%</t>
-        </is>
-      </c>
+          <t>3.9%</t>
+        </is>
+      </c>
+      <c r="E556" t="inlineStr"/>
       <c r="F556" t="inlineStr">
         <is>
-          <t>0.3%</t>
+          <t>3.7%</t>
         </is>
       </c>
       <c r="G556" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="557">
       <c r="A557" t="inlineStr">
         <is>
-          <t>08:30 AM</t>
+          <t>09:15 AM</t>
         </is>
       </c>
       <c r="B557" t="inlineStr">
         <is>
-          <t>Import Prices MoMJAN</t>
+          <t>Industrial Production MoMJAN</t>
         </is>
       </c>
       <c r="C557" t="inlineStr"/>
       <c r="D557" t="inlineStr">
         <is>
-          <t>0.1%</t>
+          <t>0.9%</t>
         </is>
       </c>
       <c r="E557" t="inlineStr">
         <is>
-          <t>0.4%</t>
+          <t>0.3%</t>
         </is>
       </c>
       <c r="F557" t="inlineStr">
@@ -15167,90 +15139,90 @@
     <row r="558">
       <c r="A558" t="inlineStr">
         <is>
-          <t>08:30 AM</t>
+          <t>09:15 AM</t>
         </is>
       </c>
       <c r="B558" t="inlineStr">
         <is>
-          <t>Retail Sales Control Group MoMJAN</t>
+          <t>Capacity UtilizationJAN</t>
         </is>
       </c>
       <c r="C558" t="inlineStr"/>
       <c r="D558" t="inlineStr">
         <is>
-          <t>0.7%</t>
+          <t>77.6%</t>
         </is>
       </c>
       <c r="E558" t="inlineStr">
         <is>
-          <t>0.3%</t>
+          <t>77.7%</t>
         </is>
       </c>
       <c r="F558" t="inlineStr">
         <is>
-          <t>0.4%</t>
+          <t>77.4%</t>
         </is>
       </c>
       <c r="G558" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="559">
       <c r="A559" t="inlineStr">
         <is>
-          <t>08:30 AM</t>
+          <t>09:15 AM</t>
         </is>
       </c>
       <c r="B559" t="inlineStr">
         <is>
-          <t>Retail Sales Ex Autos MoMJAN</t>
+          <t>Industrial Production YoYJAN</t>
         </is>
       </c>
       <c r="C559" t="inlineStr"/>
       <c r="D559" t="inlineStr">
         <is>
-          <t>0.4%</t>
-        </is>
-      </c>
-      <c r="E559" t="inlineStr">
-        <is>
-          <t>0.3%</t>
-        </is>
-      </c>
+          <t>0.5%</t>
+        </is>
+      </c>
+      <c r="E559" t="inlineStr"/>
       <c r="F559" t="inlineStr">
         <is>
-          <t>0.3%</t>
+          <t>0.9%</t>
         </is>
       </c>
       <c r="G559" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="560">
       <c r="A560" t="inlineStr">
         <is>
-          <t>08:30 AM</t>
+          <t>09:15 AM</t>
         </is>
       </c>
       <c r="B560" t="inlineStr">
         <is>
-          <t>Export Prices YoYJAN</t>
+          <t>Manufacturing Production MoMJAN</t>
         </is>
       </c>
       <c r="C560" t="inlineStr"/>
       <c r="D560" t="inlineStr">
         <is>
-          <t>1.8%</t>
-        </is>
-      </c>
-      <c r="E560" t="inlineStr"/>
+          <t>0.6%</t>
+        </is>
+      </c>
+      <c r="E560" t="inlineStr">
+        <is>
+          <t>0.1%</t>
+        </is>
+      </c>
       <c r="F560" t="inlineStr">
         <is>
-          <t>2.3%</t>
+          <t>0.2%</t>
         </is>
       </c>
       <c r="G560" t="inlineStr">
@@ -15262,24 +15234,24 @@
     <row r="561">
       <c r="A561" t="inlineStr">
         <is>
-          <t>08:30 AM</t>
+          <t>09:15 AM</t>
         </is>
       </c>
       <c r="B561" t="inlineStr">
         <is>
-          <t>Import Prices YoYJAN</t>
+          <t>Manufacturing Production YoYJAN</t>
         </is>
       </c>
       <c r="C561" t="inlineStr"/>
       <c r="D561" t="inlineStr">
         <is>
-          <t>2.2%</t>
+          <t>0%</t>
         </is>
       </c>
       <c r="E561" t="inlineStr"/>
       <c r="F561" t="inlineStr">
         <is>
-          <t>2.8%</t>
+          <t>0.8%</t>
         </is>
       </c>
       <c r="G561" t="inlineStr">
@@ -15291,53 +15263,61 @@
     <row r="562">
       <c r="A562" t="inlineStr">
         <is>
-          <t>08:30 AM</t>
+          <t>10:00 AM</t>
         </is>
       </c>
       <c r="B562" t="inlineStr">
         <is>
-          <t>Retail Sales Ex Gas/Autos MoMJAN</t>
+          <t>Business Inventories MoMDEC</t>
         </is>
       </c>
       <c r="C562" t="inlineStr"/>
       <c r="D562" t="inlineStr">
         <is>
-          <t>0.3%</t>
-        </is>
-      </c>
-      <c r="E562" t="inlineStr"/>
+          <t>0.1%</t>
+        </is>
+      </c>
+      <c r="E562" t="inlineStr">
+        <is>
+          <t>0%</t>
+        </is>
+      </c>
       <c r="F562" t="inlineStr">
         <is>
-          <t>0.2%</t>
+          <t>-0.1%</t>
         </is>
       </c>
       <c r="G562" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="563">
       <c r="A563" t="inlineStr">
         <is>
-          <t>08:30 AM</t>
+          <t>10:00 AM</t>
         </is>
       </c>
       <c r="B563" t="inlineStr">
         <is>
-          <t>Retail Sales YoYJAN</t>
+          <t>Retail Inventories Ex Autos MoMDEC</t>
         </is>
       </c>
       <c r="C563" t="inlineStr"/>
       <c r="D563" t="inlineStr">
         <is>
-          <t>3.9%</t>
-        </is>
-      </c>
-      <c r="E563" t="inlineStr"/>
+          <t>0.4%</t>
+        </is>
+      </c>
+      <c r="E563" t="inlineStr">
+        <is>
+          <t>0.2%</t>
+        </is>
+      </c>
       <c r="F563" t="inlineStr">
         <is>
-          <t>3.7%</t>
+          <t>0.2%</t>
         </is>
       </c>
       <c r="G563" t="inlineStr">
@@ -15349,63 +15329,47 @@
     <row r="564">
       <c r="A564" t="inlineStr">
         <is>
-          <t>09:15 AM</t>
+          <t>01:00 PM</t>
         </is>
       </c>
       <c r="B564" t="inlineStr">
         <is>
-          <t>Industrial Production MoMJAN</t>
+          <t>Baker Hughes Oil Rig CountFEB/14</t>
         </is>
       </c>
       <c r="C564" t="inlineStr"/>
       <c r="D564" t="inlineStr">
         <is>
-          <t>0.9%</t>
-        </is>
-      </c>
-      <c r="E564" t="inlineStr">
-        <is>
-          <t>0.3%</t>
-        </is>
-      </c>
-      <c r="F564" t="inlineStr">
-        <is>
-          <t>0.3%</t>
-        </is>
-      </c>
+          <t>480</t>
+        </is>
+      </c>
+      <c r="E564" t="inlineStr"/>
+      <c r="F564" t="inlineStr"/>
       <c r="G564" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="565">
       <c r="A565" t="inlineStr">
         <is>
-          <t>09:15 AM</t>
+          <t>01:00 PM</t>
         </is>
       </c>
       <c r="B565" t="inlineStr">
         <is>
-          <t>Capacity UtilizationJAN</t>
+          <t>Baker Hughes Total Rigs CountFEB/14</t>
         </is>
       </c>
       <c r="C565" t="inlineStr"/>
       <c r="D565" t="inlineStr">
         <is>
-          <t>77.6%</t>
-        </is>
-      </c>
-      <c r="E565" t="inlineStr">
-        <is>
-          <t>77.7%</t>
-        </is>
-      </c>
-      <c r="F565" t="inlineStr">
-        <is>
-          <t>77.4%</t>
-        </is>
-      </c>
+          <t>586</t>
+        </is>
+      </c>
+      <c r="E565" t="inlineStr"/>
+      <c r="F565" t="inlineStr"/>
       <c r="G565" t="inlineStr">
         <is>
           <t>3</t>
@@ -15415,121 +15379,65 @@
     <row r="566">
       <c r="A566" t="inlineStr">
         <is>
-          <t>09:15 AM</t>
+          <t>03:00 PM</t>
         </is>
       </c>
       <c r="B566" t="inlineStr">
         <is>
-          <t>Industrial Production YoYJAN</t>
+          <t>Fed Logan Speech</t>
         </is>
       </c>
       <c r="C566" t="inlineStr"/>
-      <c r="D566" t="inlineStr">
-        <is>
-          <t>0.5%</t>
-        </is>
-      </c>
+      <c r="D566" t="inlineStr"/>
       <c r="E566" t="inlineStr"/>
-      <c r="F566" t="inlineStr">
-        <is>
-          <t>0.9%</t>
-        </is>
-      </c>
+      <c r="F566" t="inlineStr"/>
       <c r="G566" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="567">
       <c r="A567" t="inlineStr">
         <is>
-          <t>09:15 AM</t>
-        </is>
-      </c>
-      <c r="B567" t="inlineStr">
-        <is>
-          <t>Manufacturing Production MoMJAN</t>
-        </is>
-      </c>
+          <t>Sunday February 16 2025</t>
+        </is>
+      </c>
+      <c r="B567" t="inlineStr"/>
       <c r="C567" t="inlineStr"/>
-      <c r="D567" t="inlineStr">
-        <is>
-          <t>0.6%</t>
-        </is>
-      </c>
-      <c r="E567" t="inlineStr">
-        <is>
-          <t>0.1%</t>
-        </is>
-      </c>
-      <c r="F567" t="inlineStr">
-        <is>
-          <t>0.2%</t>
-        </is>
-      </c>
-      <c r="G567" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
+      <c r="D567" t="inlineStr"/>
+      <c r="E567" t="inlineStr"/>
+      <c r="F567" t="inlineStr"/>
+      <c r="G567" t="inlineStr"/>
     </row>
     <row r="568">
       <c r="A568" t="inlineStr">
         <is>
-          <t>09:15 AM</t>
-        </is>
-      </c>
-      <c r="B568" t="inlineStr">
-        <is>
-          <t>Manufacturing Production YoYJAN</t>
-        </is>
-      </c>
+          <t>Monday February 17 2025</t>
+        </is>
+      </c>
+      <c r="B568" t="inlineStr"/>
       <c r="C568" t="inlineStr"/>
-      <c r="D568" t="inlineStr">
-        <is>
-          <t>0%</t>
-        </is>
-      </c>
+      <c r="D568" t="inlineStr"/>
       <c r="E568" t="inlineStr"/>
-      <c r="F568" t="inlineStr">
-        <is>
-          <t>0.8%</t>
-        </is>
-      </c>
-      <c r="G568" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
+      <c r="F568" t="inlineStr"/>
+      <c r="G568" t="inlineStr"/>
     </row>
     <row r="569">
       <c r="A569" t="inlineStr">
         <is>
-          <t>10:00 AM</t>
+          <t>09:30 AM</t>
         </is>
       </c>
       <c r="B569" t="inlineStr">
         <is>
-          <t>Business Inventories MoMDEC</t>
+          <t>Fed Harker Speech</t>
         </is>
       </c>
       <c r="C569" t="inlineStr"/>
-      <c r="D569" t="inlineStr">
-        <is>
-          <t>0.1%</t>
-        </is>
-      </c>
-      <c r="E569" t="inlineStr">
-        <is>
-          <t>0%</t>
-        </is>
-      </c>
-      <c r="F569" t="inlineStr">
-        <is>
-          <t>-0.1%</t>
-        </is>
-      </c>
+      <c r="D569" t="inlineStr"/>
+      <c r="E569" t="inlineStr"/>
+      <c r="F569" t="inlineStr"/>
       <c r="G569" t="inlineStr">
         <is>
           <t>2</t>
@@ -15539,198 +15447,210 @@
     <row r="570">
       <c r="A570" t="inlineStr">
         <is>
-          <t>10:00 AM</t>
-        </is>
-      </c>
-      <c r="B570" t="inlineStr">
-        <is>
-          <t>Retail Inventories Ex Autos MoMDEC</t>
-        </is>
-      </c>
+          <t>Tuesday February 18 2025</t>
+        </is>
+      </c>
+      <c r="B570" t="inlineStr"/>
       <c r="C570" t="inlineStr"/>
-      <c r="D570" t="inlineStr">
-        <is>
-          <t>0.4%</t>
-        </is>
-      </c>
-      <c r="E570" t="inlineStr">
-        <is>
-          <t>0.2%</t>
-        </is>
-      </c>
-      <c r="F570" t="inlineStr">
-        <is>
-          <t>0.2%</t>
-        </is>
-      </c>
-      <c r="G570" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
+      <c r="D570" t="inlineStr"/>
+      <c r="E570" t="inlineStr"/>
+      <c r="F570" t="inlineStr"/>
+      <c r="G570" t="inlineStr"/>
     </row>
     <row r="571">
       <c r="A571" t="inlineStr">
         <is>
-          <t>01:00 PM</t>
+          <t>08:30 AM</t>
         </is>
       </c>
       <c r="B571" t="inlineStr">
         <is>
-          <t>Baker Hughes Oil Rig CountFEB/14</t>
+          <t>NY Empire State Manufacturing IndexFEB</t>
         </is>
       </c>
       <c r="C571" t="inlineStr"/>
       <c r="D571" t="inlineStr">
         <is>
-          <t>480</t>
+          <t>-12.6</t>
         </is>
       </c>
       <c r="E571" t="inlineStr"/>
-      <c r="F571" t="inlineStr"/>
+      <c r="F571" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
       <c r="G571" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="572">
       <c r="A572" t="inlineStr">
         <is>
-          <t>01:00 PM</t>
+          <t>10:00 AM</t>
         </is>
       </c>
       <c r="B572" t="inlineStr">
         <is>
-          <t>Baker Hughes Total Rigs CountFEB/14</t>
+          <t>NAHB Housing Market IndexFEB</t>
         </is>
       </c>
       <c r="C572" t="inlineStr"/>
       <c r="D572" t="inlineStr">
         <is>
-          <t>586</t>
+          <t>47</t>
         </is>
       </c>
       <c r="E572" t="inlineStr"/>
-      <c r="F572" t="inlineStr"/>
+      <c r="F572" t="inlineStr">
+        <is>
+          <t>46</t>
+        </is>
+      </c>
       <c r="G572" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="573">
       <c r="A573" t="inlineStr">
         <is>
-          <t>Sunday February 16 2025</t>
-        </is>
-      </c>
-      <c r="B573" t="inlineStr"/>
+          <t>10:20 AM</t>
+        </is>
+      </c>
+      <c r="B573" t="inlineStr">
+        <is>
+          <t>Fed Daly Speech</t>
+        </is>
+      </c>
       <c r="C573" t="inlineStr"/>
       <c r="D573" t="inlineStr"/>
       <c r="E573" t="inlineStr"/>
       <c r="F573" t="inlineStr"/>
-      <c r="G573" t="inlineStr"/>
+      <c r="G573" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
     </row>
     <row r="574">
       <c r="A574" t="inlineStr">
         <is>
-          <t>Monday February 17 2025</t>
-        </is>
-      </c>
-      <c r="B574" t="inlineStr"/>
+          <t>11:30 AM</t>
+        </is>
+      </c>
+      <c r="B574" t="inlineStr">
+        <is>
+          <t>3-Month Bill Auction</t>
+        </is>
+      </c>
       <c r="C574" t="inlineStr"/>
-      <c r="D574" t="inlineStr"/>
+      <c r="D574" t="inlineStr">
+        <is>
+          <t>4.225%</t>
+        </is>
+      </c>
       <c r="E574" t="inlineStr"/>
       <c r="F574" t="inlineStr"/>
-      <c r="G574" t="inlineStr"/>
+      <c r="G574" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
     </row>
     <row r="575">
       <c r="A575" t="inlineStr">
         <is>
-          <t>09:30 AM</t>
+          <t>11:30 AM</t>
         </is>
       </c>
       <c r="B575" t="inlineStr">
         <is>
-          <t>Fed Harker Speech</t>
+          <t>52-Week Bill Auction</t>
         </is>
       </c>
       <c r="C575" t="inlineStr"/>
-      <c r="D575" t="inlineStr"/>
+      <c r="D575" t="inlineStr">
+        <is>
+          <t>4.025%</t>
+        </is>
+      </c>
       <c r="E575" t="inlineStr"/>
       <c r="F575" t="inlineStr"/>
       <c r="G575" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="576">
       <c r="A576" t="inlineStr">
         <is>
-          <t>Tuesday February 18 2025</t>
-        </is>
-      </c>
-      <c r="B576" t="inlineStr"/>
+          <t>11:30 AM</t>
+        </is>
+      </c>
+      <c r="B576" t="inlineStr">
+        <is>
+          <t>6-Month Bill Auction</t>
+        </is>
+      </c>
       <c r="C576" t="inlineStr"/>
-      <c r="D576" t="inlineStr"/>
+      <c r="D576" t="inlineStr">
+        <is>
+          <t>4.185%</t>
+        </is>
+      </c>
       <c r="E576" t="inlineStr"/>
       <c r="F576" t="inlineStr"/>
-      <c r="G576" t="inlineStr"/>
+      <c r="G576" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
     </row>
     <row r="577">
       <c r="A577" t="inlineStr">
         <is>
-          <t>08:30 AM</t>
+          <t>12:00 PM</t>
         </is>
       </c>
       <c r="B577" t="inlineStr">
         <is>
-          <t>NY Empire State Manufacturing IndexFEB</t>
+          <t>NOPA Crush Report</t>
         </is>
       </c>
       <c r="C577" t="inlineStr"/>
-      <c r="D577" t="inlineStr">
-        <is>
-          <t>-12.6</t>
-        </is>
-      </c>
+      <c r="D577" t="inlineStr"/>
       <c r="E577" t="inlineStr"/>
-      <c r="F577" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
+      <c r="F577" t="inlineStr"/>
       <c r="G577" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="578">
       <c r="A578" t="inlineStr">
         <is>
-          <t>10:00 AM</t>
+          <t>04:00 PM</t>
         </is>
       </c>
       <c r="B578" t="inlineStr">
         <is>
-          <t>NAHB Housing Market IndexFEB</t>
+          <t>Net Long-term TIC FlowsDEC</t>
         </is>
       </c>
       <c r="C578" t="inlineStr"/>
       <c r="D578" t="inlineStr">
         <is>
-          <t>47</t>
+          <t>$79B</t>
         </is>
       </c>
       <c r="E578" t="inlineStr"/>
-      <c r="F578" t="inlineStr">
-        <is>
-          <t>46</t>
-        </is>
-      </c>
+      <c r="F578" t="inlineStr"/>
       <c r="G578" t="inlineStr">
         <is>
           <t>2</t>
@@ -15740,18 +15660,18 @@
     <row r="579">
       <c r="A579" t="inlineStr">
         <is>
-          <t>11:30 AM</t>
+          <t>04:00 PM</t>
         </is>
       </c>
       <c r="B579" t="inlineStr">
         <is>
-          <t>3-Month Bill Auction</t>
+          <t>Foreign Bond InvestmentDEC</t>
         </is>
       </c>
       <c r="C579" t="inlineStr"/>
       <c r="D579" t="inlineStr">
         <is>
-          <t>4.225%</t>
+          <t>$-15.8B</t>
         </is>
       </c>
       <c r="E579" t="inlineStr"/>
@@ -15765,18 +15685,18 @@
     <row r="580">
       <c r="A580" t="inlineStr">
         <is>
-          <t>11:30 AM</t>
+          <t>04:00 PM</t>
         </is>
       </c>
       <c r="B580" t="inlineStr">
         <is>
-          <t>52-Week Bill Auction</t>
+          <t>Overall Net Capital FlowsDEC</t>
         </is>
       </c>
       <c r="C580" t="inlineStr"/>
       <c r="D580" t="inlineStr">
         <is>
-          <t>4.025%</t>
+          <t>$159.9B</t>
         </is>
       </c>
       <c r="E580" t="inlineStr"/>
@@ -15790,89 +15710,81 @@
     <row r="581">
       <c r="A581" t="inlineStr">
         <is>
-          <t>11:30 AM</t>
-        </is>
-      </c>
-      <c r="B581" t="inlineStr">
-        <is>
-          <t>6-Month Bill Auction</t>
-        </is>
-      </c>
+          <t>Wednesday February 19 2025</t>
+        </is>
+      </c>
+      <c r="B581" t="inlineStr"/>
       <c r="C581" t="inlineStr"/>
-      <c r="D581" t="inlineStr">
-        <is>
-          <t>4.185%</t>
-        </is>
-      </c>
+      <c r="D581" t="inlineStr"/>
       <c r="E581" t="inlineStr"/>
       <c r="F581" t="inlineStr"/>
-      <c r="G581" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
+      <c r="G581" t="inlineStr"/>
     </row>
     <row r="582">
       <c r="A582" t="inlineStr">
         <is>
-          <t>12:00 PM</t>
+          <t>07:00 AM</t>
         </is>
       </c>
       <c r="B582" t="inlineStr">
         <is>
-          <t>NOPA Crush Report</t>
+          <t>MBA 30-Year Mortgage RateFEB/14</t>
         </is>
       </c>
       <c r="C582" t="inlineStr"/>
-      <c r="D582" t="inlineStr"/>
+      <c r="D582" t="inlineStr">
+        <is>
+          <t>6.95%</t>
+        </is>
+      </c>
       <c r="E582" t="inlineStr"/>
       <c r="F582" t="inlineStr"/>
       <c r="G582" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="583">
       <c r="A583" t="inlineStr">
         <is>
-          <t>04:00 PM</t>
+          <t>07:00 AM</t>
         </is>
       </c>
       <c r="B583" t="inlineStr">
         <is>
-          <t>Net Long-term TIC FlowsDEC</t>
+          <t>MBA Mortgage ApplicationsFEB/14</t>
         </is>
       </c>
       <c r="C583" t="inlineStr"/>
       <c r="D583" t="inlineStr">
         <is>
-          <t>$79B</t>
+          <t>2.3%</t>
         </is>
       </c>
       <c r="E583" t="inlineStr"/>
       <c r="F583" t="inlineStr"/>
       <c r="G583" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="584">
       <c r="A584" t="inlineStr">
         <is>
-          <t>04:00 PM</t>
+          <t>07:00 AM</t>
         </is>
       </c>
       <c r="B584" t="inlineStr">
         <is>
-          <t>Foreign Bond InvestmentDEC</t>
+          <t>MBA Mortgage Market IndexFEB/14</t>
         </is>
       </c>
       <c r="C584" t="inlineStr"/>
       <c r="D584" t="inlineStr">
         <is>
-          <t>$-15.8B</t>
+          <t>230.0</t>
         </is>
       </c>
       <c r="E584" t="inlineStr"/>
@@ -15886,18 +15798,18 @@
     <row r="585">
       <c r="A585" t="inlineStr">
         <is>
-          <t>04:00 PM</t>
+          <t>07:00 AM</t>
         </is>
       </c>
       <c r="B585" t="inlineStr">
         <is>
-          <t>Overall Net Capital FlowsDEC</t>
+          <t>MBA Mortgage Refinance IndexFEB/14</t>
         </is>
       </c>
       <c r="C585" t="inlineStr"/>
       <c r="D585" t="inlineStr">
         <is>
-          <t>$159.9B</t>
+          <t>640.6</t>
         </is>
       </c>
       <c r="E585" t="inlineStr"/>
@@ -15911,131 +15823,159 @@
     <row r="586">
       <c r="A586" t="inlineStr">
         <is>
-          <t>Wednesday February 19 2025</t>
-        </is>
-      </c>
-      <c r="B586" t="inlineStr"/>
+          <t>07:00 AM</t>
+        </is>
+      </c>
+      <c r="B586" t="inlineStr">
+        <is>
+          <t>MBA Purchase IndexFEB/14</t>
+        </is>
+      </c>
       <c r="C586" t="inlineStr"/>
-      <c r="D586" t="inlineStr"/>
+      <c r="D586" t="inlineStr">
+        <is>
+          <t>153.1</t>
+        </is>
+      </c>
       <c r="E586" t="inlineStr"/>
       <c r="F586" t="inlineStr"/>
-      <c r="G586" t="inlineStr"/>
+      <c r="G586" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
     </row>
     <row r="587">
       <c r="A587" t="inlineStr">
         <is>
-          <t>07:00 AM</t>
+          <t>08:30 AM</t>
         </is>
       </c>
       <c r="B587" t="inlineStr">
         <is>
-          <t>MBA 30-Year Mortgage RateFEB/14</t>
+          <t>Building Permits PrelJAN</t>
         </is>
       </c>
       <c r="C587" t="inlineStr"/>
       <c r="D587" t="inlineStr">
         <is>
-          <t>6.95%</t>
+          <t>1.482M</t>
         </is>
       </c>
       <c r="E587" t="inlineStr"/>
-      <c r="F587" t="inlineStr"/>
+      <c r="F587" t="inlineStr">
+        <is>
+          <t>1.47M</t>
+        </is>
+      </c>
       <c r="G587" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
     </row>
     <row r="588">
       <c r="A588" t="inlineStr">
         <is>
-          <t>07:00 AM</t>
+          <t>08:30 AM</t>
         </is>
       </c>
       <c r="B588" t="inlineStr">
         <is>
-          <t>MBA Mortgage ApplicationsFEB/14</t>
+          <t>Housing StartsJAN</t>
         </is>
       </c>
       <c r="C588" t="inlineStr"/>
       <c r="D588" t="inlineStr">
         <is>
-          <t>2.3%</t>
+          <t>1.499M</t>
         </is>
       </c>
       <c r="E588" t="inlineStr"/>
-      <c r="F588" t="inlineStr"/>
+      <c r="F588" t="inlineStr">
+        <is>
+          <t>1.35M</t>
+        </is>
+      </c>
       <c r="G588" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1</t>
         </is>
       </c>
     </row>
     <row r="589">
       <c r="A589" t="inlineStr">
         <is>
-          <t>07:00 AM</t>
+          <t>08:30 AM</t>
         </is>
       </c>
       <c r="B589" t="inlineStr">
         <is>
-          <t>MBA Mortgage Market IndexFEB/14</t>
+          <t>Building Permits MoM PrelJAN</t>
         </is>
       </c>
       <c r="C589" t="inlineStr"/>
       <c r="D589" t="inlineStr">
         <is>
-          <t>230.0</t>
+          <t>-0.7%</t>
         </is>
       </c>
       <c r="E589" t="inlineStr"/>
-      <c r="F589" t="inlineStr"/>
+      <c r="F589" t="inlineStr">
+        <is>
+          <t>-0.8%</t>
+        </is>
+      </c>
       <c r="G589" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="590">
       <c r="A590" t="inlineStr">
         <is>
-          <t>07:00 AM</t>
+          <t>08:30 AM</t>
         </is>
       </c>
       <c r="B590" t="inlineStr">
         <is>
-          <t>MBA Mortgage Refinance IndexFEB/14</t>
+          <t>Housing Starts MoMJAN</t>
         </is>
       </c>
       <c r="C590" t="inlineStr"/>
       <c r="D590" t="inlineStr">
         <is>
-          <t>640.6</t>
+          <t>15.8%</t>
         </is>
       </c>
       <c r="E590" t="inlineStr"/>
-      <c r="F590" t="inlineStr"/>
+      <c r="F590" t="inlineStr">
+        <is>
+          <t>-9.0%</t>
+        </is>
+      </c>
       <c r="G590" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="591">
       <c r="A591" t="inlineStr">
         <is>
-          <t>07:00 AM</t>
+          <t>08:55 AM</t>
         </is>
       </c>
       <c r="B591" t="inlineStr">
         <is>
-          <t>MBA Purchase IndexFEB/14</t>
+          <t>Redbook YoYFEB/15</t>
         </is>
       </c>
       <c r="C591" t="inlineStr"/>
       <c r="D591" t="inlineStr">
         <is>
-          <t>153.1</t>
+          <t>5.3%</t>
         </is>
       </c>
       <c r="E591" t="inlineStr"/>
@@ -16049,113 +15989,93 @@
     <row r="592">
       <c r="A592" t="inlineStr">
         <is>
-          <t>08:30 AM</t>
+          <t>11:30 AM</t>
         </is>
       </c>
       <c r="B592" t="inlineStr">
         <is>
-          <t>Building Permits PrelJAN</t>
+          <t>17-Week Bill Auction</t>
         </is>
       </c>
       <c r="C592" t="inlineStr"/>
       <c r="D592" t="inlineStr">
         <is>
-          <t>1.482M</t>
+          <t>4.230%</t>
         </is>
       </c>
       <c r="E592" t="inlineStr"/>
-      <c r="F592" t="inlineStr">
-        <is>
-          <t>1.47M</t>
-        </is>
-      </c>
+      <c r="F592" t="inlineStr"/>
       <c r="G592" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="593">
       <c r="A593" t="inlineStr">
         <is>
-          <t>08:30 AM</t>
+          <t>01:00 PM</t>
         </is>
       </c>
       <c r="B593" t="inlineStr">
         <is>
-          <t>Housing StartsJAN</t>
+          <t>20-Year Bond Auction</t>
         </is>
       </c>
       <c r="C593" t="inlineStr"/>
       <c r="D593" t="inlineStr">
         <is>
-          <t>1.499M</t>
+          <t>4.900%</t>
         </is>
       </c>
       <c r="E593" t="inlineStr"/>
-      <c r="F593" t="inlineStr">
-        <is>
-          <t>1.35M</t>
-        </is>
-      </c>
+      <c r="F593" t="inlineStr"/>
       <c r="G593" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="594">
       <c r="A594" t="inlineStr">
         <is>
-          <t>08:30 AM</t>
+          <t>02:00 PM</t>
         </is>
       </c>
       <c r="B594" t="inlineStr">
         <is>
-          <t>Building Permits MoM PrelJAN</t>
+          <t>FOMC Minutes</t>
         </is>
       </c>
       <c r="C594" t="inlineStr"/>
-      <c r="D594" t="inlineStr">
-        <is>
-          <t>-0.7%</t>
-        </is>
-      </c>
+      <c r="D594" t="inlineStr"/>
       <c r="E594" t="inlineStr"/>
-      <c r="F594" t="inlineStr">
-        <is>
-          <t>-0.8%</t>
-        </is>
-      </c>
+      <c r="F594" t="inlineStr"/>
       <c r="G594" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
     </row>
     <row r="595">
       <c r="A595" t="inlineStr">
         <is>
-          <t>08:30 AM</t>
+          <t>04:30 PM</t>
         </is>
       </c>
       <c r="B595" t="inlineStr">
         <is>
-          <t>Housing Starts MoMJAN</t>
+          <t>API Crude Oil Stock ChangeFEB/14</t>
         </is>
       </c>
       <c r="C595" t="inlineStr"/>
       <c r="D595" t="inlineStr">
         <is>
-          <t>15.8%</t>
+          <t>9.043M</t>
         </is>
       </c>
       <c r="E595" t="inlineStr"/>
-      <c r="F595" t="inlineStr">
-        <is>
-          <t>-9.0%</t>
-        </is>
-      </c>
+      <c r="F595" t="inlineStr"/>
       <c r="G595" t="inlineStr">
         <is>
           <t>2</t>
@@ -16165,136 +16085,156 @@
     <row r="596">
       <c r="A596" t="inlineStr">
         <is>
-          <t>08:55 AM</t>
-        </is>
-      </c>
-      <c r="B596" t="inlineStr">
-        <is>
-          <t>Redbook YoYFEB/15</t>
-        </is>
-      </c>
+          <t>Thursday February 20 2025</t>
+        </is>
+      </c>
+      <c r="B596" t="inlineStr"/>
       <c r="C596" t="inlineStr"/>
-      <c r="D596" t="inlineStr">
-        <is>
-          <t>5.3%</t>
-        </is>
-      </c>
+      <c r="D596" t="inlineStr"/>
       <c r="E596" t="inlineStr"/>
       <c r="F596" t="inlineStr"/>
-      <c r="G596" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
+      <c r="G596" t="inlineStr"/>
     </row>
     <row r="597">
       <c r="A597" t="inlineStr">
         <is>
-          <t>11:30 AM</t>
+          <t>08:30 AM</t>
         </is>
       </c>
       <c r="B597" t="inlineStr">
         <is>
-          <t>17-Week Bill Auction</t>
+          <t>Initial Jobless ClaimsFEB/15</t>
         </is>
       </c>
       <c r="C597" t="inlineStr"/>
       <c r="D597" t="inlineStr">
         <is>
-          <t>4.230%</t>
+          <t>213K</t>
         </is>
       </c>
       <c r="E597" t="inlineStr"/>
-      <c r="F597" t="inlineStr"/>
+      <c r="F597" t="inlineStr">
+        <is>
+          <t>220.0K</t>
+        </is>
+      </c>
       <c r="G597" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="598">
       <c r="A598" t="inlineStr">
         <is>
-          <t>01:00 PM</t>
+          <t>08:30 AM</t>
         </is>
       </c>
       <c r="B598" t="inlineStr">
         <is>
-          <t>20-Year Bond Auction</t>
+          <t>Philadelphia Fed Manufacturing IndexFEB</t>
         </is>
       </c>
       <c r="C598" t="inlineStr"/>
       <c r="D598" t="inlineStr">
         <is>
-          <t>4.900%</t>
+          <t>44.3</t>
         </is>
       </c>
       <c r="E598" t="inlineStr"/>
-      <c r="F598" t="inlineStr"/>
+      <c r="F598" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
       <c r="G598" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="599">
       <c r="A599" t="inlineStr">
         <is>
-          <t>02:00 PM</t>
+          <t>08:30 AM</t>
         </is>
       </c>
       <c r="B599" t="inlineStr">
         <is>
-          <t>FOMC Minutes</t>
+          <t>Continuing Jobless ClaimsFEB/08</t>
         </is>
       </c>
       <c r="C599" t="inlineStr"/>
-      <c r="D599" t="inlineStr"/>
+      <c r="D599" t="inlineStr">
+        <is>
+          <t>1850K</t>
+        </is>
+      </c>
       <c r="E599" t="inlineStr"/>
-      <c r="F599" t="inlineStr"/>
+      <c r="F599" t="inlineStr">
+        <is>
+          <t>1879.0K</t>
+        </is>
+      </c>
       <c r="G599" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="600">
       <c r="A600" t="inlineStr">
         <is>
-          <t>04:30 PM</t>
+          <t>08:30 AM</t>
         </is>
       </c>
       <c r="B600" t="inlineStr">
         <is>
-          <t>API Crude Oil Stock ChangeFEB/14</t>
+          <t>Jobless Claims 4-week AverageFEB/15</t>
         </is>
       </c>
       <c r="C600" t="inlineStr"/>
       <c r="D600" t="inlineStr">
         <is>
-          <t>9.043M</t>
+          <t>216K</t>
         </is>
       </c>
       <c r="E600" t="inlineStr"/>
-      <c r="F600" t="inlineStr"/>
+      <c r="F600" t="inlineStr">
+        <is>
+          <t>219.0K</t>
+        </is>
+      </c>
       <c r="G600" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="601">
       <c r="A601" t="inlineStr">
         <is>
-          <t>Thursday February 20 2025</t>
-        </is>
-      </c>
-      <c r="B601" t="inlineStr"/>
+          <t>08:30 AM</t>
+        </is>
+      </c>
+      <c r="B601" t="inlineStr">
+        <is>
+          <t>Philly Fed Business ConditionsFEB</t>
+        </is>
+      </c>
       <c r="C601" t="inlineStr"/>
-      <c r="D601" t="inlineStr"/>
+      <c r="D601" t="inlineStr">
+        <is>
+          <t>46.3</t>
+        </is>
+      </c>
       <c r="E601" t="inlineStr"/>
       <c r="F601" t="inlineStr"/>
-      <c r="G601" t="inlineStr"/>
+      <c r="G601" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
     </row>
     <row r="602">
       <c r="A602" t="inlineStr">
@@ -16304,24 +16244,20 @@
       </c>
       <c r="B602" t="inlineStr">
         <is>
-          <t>Initial Jobless ClaimsFEB/15</t>
+          <t>Philly Fed CAPEX IndexFEB</t>
         </is>
       </c>
       <c r="C602" t="inlineStr"/>
       <c r="D602" t="inlineStr">
         <is>
-          <t>213K</t>
+          <t>39</t>
         </is>
       </c>
       <c r="E602" t="inlineStr"/>
-      <c r="F602" t="inlineStr">
-        <is>
-          <t>220.0K</t>
-        </is>
-      </c>
+      <c r="F602" t="inlineStr"/>
       <c r="G602" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
@@ -16333,24 +16269,20 @@
       </c>
       <c r="B603" t="inlineStr">
         <is>
-          <t>Philadelphia Fed Manufacturing IndexFEB</t>
+          <t>Philly Fed EmploymentFEB</t>
         </is>
       </c>
       <c r="C603" t="inlineStr"/>
       <c r="D603" t="inlineStr">
         <is>
-          <t>44.3</t>
+          <t>11.9</t>
         </is>
       </c>
       <c r="E603" t="inlineStr"/>
-      <c r="F603" t="inlineStr">
-        <is>
-          <t>8</t>
-        </is>
-      </c>
+      <c r="F603" t="inlineStr"/>
       <c r="G603" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
@@ -16362,21 +16294,17 @@
       </c>
       <c r="B604" t="inlineStr">
         <is>
-          <t>Continuing Jobless ClaimsFEB/08</t>
+          <t>Philly Fed New OrdersFEB</t>
         </is>
       </c>
       <c r="C604" t="inlineStr"/>
       <c r="D604" t="inlineStr">
         <is>
-          <t>1850K</t>
+          <t>42.9</t>
         </is>
       </c>
       <c r="E604" t="inlineStr"/>
-      <c r="F604" t="inlineStr">
-        <is>
-          <t>1879.0K</t>
-        </is>
-      </c>
+      <c r="F604" t="inlineStr"/>
       <c r="G604" t="inlineStr">
         <is>
           <t>3</t>
@@ -16391,21 +16319,17 @@
       </c>
       <c r="B605" t="inlineStr">
         <is>
-          <t>Jobless Claims 4-week AverageFEB/15</t>
+          <t>Philly Fed Prices PaidFEB</t>
         </is>
       </c>
       <c r="C605" t="inlineStr"/>
       <c r="D605" t="inlineStr">
         <is>
-          <t>216K</t>
+          <t>31.9</t>
         </is>
       </c>
       <c r="E605" t="inlineStr"/>
-      <c r="F605" t="inlineStr">
-        <is>
-          <t>219.0K</t>
-        </is>
-      </c>
+      <c r="F605" t="inlineStr"/>
       <c r="G605" t="inlineStr">
         <is>
           <t>3</t>
@@ -16415,47 +16339,47 @@
     <row r="606">
       <c r="A606" t="inlineStr">
         <is>
-          <t>08:30 AM</t>
+          <t>09:35 AM</t>
         </is>
       </c>
       <c r="B606" t="inlineStr">
         <is>
-          <t>Philly Fed Business ConditionsFEB</t>
+          <t>Fed Golsbee Speech</t>
         </is>
       </c>
       <c r="C606" t="inlineStr"/>
-      <c r="D606" t="inlineStr">
-        <is>
-          <t>46.3</t>
-        </is>
-      </c>
+      <c r="D606" t="inlineStr"/>
       <c r="E606" t="inlineStr"/>
       <c r="F606" t="inlineStr"/>
       <c r="G606" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="607">
       <c r="A607" t="inlineStr">
         <is>
-          <t>08:30 AM</t>
+          <t>10:00 AM</t>
         </is>
       </c>
       <c r="B607" t="inlineStr">
         <is>
-          <t>Philly Fed CAPEX IndexFEB</t>
+          <t>CB Leading Index MoMJAN</t>
         </is>
       </c>
       <c r="C607" t="inlineStr"/>
       <c r="D607" t="inlineStr">
         <is>
-          <t>39</t>
+          <t>-0.1%</t>
         </is>
       </c>
       <c r="E607" t="inlineStr"/>
-      <c r="F607" t="inlineStr"/>
+      <c r="F607" t="inlineStr">
+        <is>
+          <t>0%</t>
+        </is>
+      </c>
       <c r="G607" t="inlineStr">
         <is>
           <t>3</t>
@@ -16465,18 +16389,18 @@
     <row r="608">
       <c r="A608" t="inlineStr">
         <is>
-          <t>08:30 AM</t>
+          <t>10:30 AM</t>
         </is>
       </c>
       <c r="B608" t="inlineStr">
         <is>
-          <t>Philly Fed EmploymentFEB</t>
+          <t>EIA Natural Gas Stocks ChangeFEB/14</t>
         </is>
       </c>
       <c r="C608" t="inlineStr"/>
       <c r="D608" t="inlineStr">
         <is>
-          <t>11.9</t>
+          <t>-100Bcf</t>
         </is>
       </c>
       <c r="E608" t="inlineStr"/>
@@ -16490,20 +16414,16 @@
     <row r="609">
       <c r="A609" t="inlineStr">
         <is>
-          <t>08:30 AM</t>
+          <t>11:30 AM</t>
         </is>
       </c>
       <c r="B609" t="inlineStr">
         <is>
-          <t>Philly Fed New OrdersFEB</t>
+          <t>4-Week Bill Auction</t>
         </is>
       </c>
       <c r="C609" t="inlineStr"/>
-      <c r="D609" t="inlineStr">
-        <is>
-          <t>42.9</t>
-        </is>
-      </c>
+      <c r="D609" t="inlineStr"/>
       <c r="E609" t="inlineStr"/>
       <c r="F609" t="inlineStr"/>
       <c r="G609" t="inlineStr">
@@ -16515,20 +16435,16 @@
     <row r="610">
       <c r="A610" t="inlineStr">
         <is>
-          <t>08:30 AM</t>
+          <t>11:30 AM</t>
         </is>
       </c>
       <c r="B610" t="inlineStr">
         <is>
-          <t>Philly Fed Prices PaidFEB</t>
+          <t>8-Week Bill Auction</t>
         </is>
       </c>
       <c r="C610" t="inlineStr"/>
-      <c r="D610" t="inlineStr">
-        <is>
-          <t>31.9</t>
-        </is>
-      </c>
+      <c r="D610" t="inlineStr"/>
       <c r="E610" t="inlineStr"/>
       <c r="F610" t="inlineStr"/>
       <c r="G610" t="inlineStr">
@@ -16540,16 +16456,20 @@
     <row r="611">
       <c r="A611" t="inlineStr">
         <is>
-          <t>09:35 AM</t>
+          <t>12:00 PM</t>
         </is>
       </c>
       <c r="B611" t="inlineStr">
         <is>
-          <t>Fed Golsbee Speech</t>
+          <t>EIA Crude Oil Stocks ChangeFEB/14</t>
         </is>
       </c>
       <c r="C611" t="inlineStr"/>
-      <c r="D611" t="inlineStr"/>
+      <c r="D611" t="inlineStr">
+        <is>
+          <t>4.07M</t>
+        </is>
+      </c>
       <c r="E611" t="inlineStr"/>
       <c r="F611" t="inlineStr"/>
       <c r="G611" t="inlineStr">
@@ -16561,47 +16481,43 @@
     <row r="612">
       <c r="A612" t="inlineStr">
         <is>
-          <t>10:00 AM</t>
+          <t>12:00 PM</t>
         </is>
       </c>
       <c r="B612" t="inlineStr">
         <is>
-          <t>CB Leading Index MoMJAN</t>
+          <t>EIA Gasoline Stocks ChangeFEB/14</t>
         </is>
       </c>
       <c r="C612" t="inlineStr"/>
       <c r="D612" t="inlineStr">
         <is>
-          <t>-0.1%</t>
+          <t>-3.035M</t>
         </is>
       </c>
       <c r="E612" t="inlineStr"/>
-      <c r="F612" t="inlineStr">
-        <is>
-          <t>0%</t>
-        </is>
-      </c>
+      <c r="F612" t="inlineStr"/>
       <c r="G612" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="613">
       <c r="A613" t="inlineStr">
         <is>
-          <t>10:30 AM</t>
+          <t>12:00 PM</t>
         </is>
       </c>
       <c r="B613" t="inlineStr">
         <is>
-          <t>EIA Natural Gas Stocks ChangeFEB/14</t>
+          <t>15-Year Mortgage RateFEB/20</t>
         </is>
       </c>
       <c r="C613" t="inlineStr"/>
       <c r="D613" t="inlineStr">
         <is>
-          <t>-100Bcf</t>
+          <t>6.09%</t>
         </is>
       </c>
       <c r="E613" t="inlineStr"/>
@@ -16615,16 +16531,20 @@
     <row r="614">
       <c r="A614" t="inlineStr">
         <is>
-          <t>11:30 AM</t>
+          <t>12:00 PM</t>
         </is>
       </c>
       <c r="B614" t="inlineStr">
         <is>
-          <t>4-Week Bill Auction</t>
+          <t>30-Year Mortgage RateFEB/20</t>
         </is>
       </c>
       <c r="C614" t="inlineStr"/>
-      <c r="D614" t="inlineStr"/>
+      <c r="D614" t="inlineStr">
+        <is>
+          <t>6.87%</t>
+        </is>
+      </c>
       <c r="E614" t="inlineStr"/>
       <c r="F614" t="inlineStr"/>
       <c r="G614" t="inlineStr">
@@ -16636,16 +16556,20 @@
     <row r="615">
       <c r="A615" t="inlineStr">
         <is>
-          <t>11:30 AM</t>
+          <t>12:00 PM</t>
         </is>
       </c>
       <c r="B615" t="inlineStr">
         <is>
-          <t>8-Week Bill Auction</t>
+          <t>EIA Crude Oil Imports ChangeFEB/14</t>
         </is>
       </c>
       <c r="C615" t="inlineStr"/>
-      <c r="D615" t="inlineStr"/>
+      <c r="D615" t="inlineStr">
+        <is>
+          <t>-0.184M</t>
+        </is>
+      </c>
       <c r="E615" t="inlineStr"/>
       <c r="F615" t="inlineStr"/>
       <c r="G615" t="inlineStr">
@@ -16662,20 +16586,20 @@
       </c>
       <c r="B616" t="inlineStr">
         <is>
-          <t>EIA Crude Oil Stocks ChangeFEB/14</t>
+          <t>EIA Cushing Crude Oil Stocks ChangeFEB/14</t>
         </is>
       </c>
       <c r="C616" t="inlineStr"/>
       <c r="D616" t="inlineStr">
         <is>
-          <t>4.07M</t>
+          <t>0.872M</t>
         </is>
       </c>
       <c r="E616" t="inlineStr"/>
       <c r="F616" t="inlineStr"/>
       <c r="G616" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
@@ -16687,20 +16611,20 @@
       </c>
       <c r="B617" t="inlineStr">
         <is>
-          <t>EIA Gasoline Stocks ChangeFEB/14</t>
+          <t>EIA Distillate Fuel Production ChangeFEB/14</t>
         </is>
       </c>
       <c r="C617" t="inlineStr"/>
       <c r="D617" t="inlineStr">
         <is>
-          <t>-3.035M</t>
+          <t>-0.009M</t>
         </is>
       </c>
       <c r="E617" t="inlineStr"/>
       <c r="F617" t="inlineStr"/>
       <c r="G617" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
@@ -16712,16 +16636,20 @@
       </c>
       <c r="B618" t="inlineStr">
         <is>
-          <t>Fed Musalem Speech</t>
+          <t>EIA Distillate Stocks ChangeFEB/14</t>
         </is>
       </c>
       <c r="C618" t="inlineStr"/>
-      <c r="D618" t="inlineStr"/>
+      <c r="D618" t="inlineStr">
+        <is>
+          <t>0.135M</t>
+        </is>
+      </c>
       <c r="E618" t="inlineStr"/>
       <c r="F618" t="inlineStr"/>
       <c r="G618" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
@@ -16733,13 +16661,13 @@
       </c>
       <c r="B619" t="inlineStr">
         <is>
-          <t>15-Year Mortgage RateFEB/20</t>
+          <t>EIA Gasoline Production ChangeFEB/14</t>
         </is>
       </c>
       <c r="C619" t="inlineStr"/>
       <c r="D619" t="inlineStr">
         <is>
-          <t>6.09%</t>
+          <t>0.18M</t>
         </is>
       </c>
       <c r="E619" t="inlineStr"/>
@@ -16758,13 +16686,13 @@
       </c>
       <c r="B620" t="inlineStr">
         <is>
-          <t>30-Year Mortgage RateFEB/20</t>
+          <t>EIA Heating Oil Stocks ChangeFEB/14</t>
         </is>
       </c>
       <c r="C620" t="inlineStr"/>
       <c r="D620" t="inlineStr">
         <is>
-          <t>6.87%</t>
+          <t>0.159M</t>
         </is>
       </c>
       <c r="E620" t="inlineStr"/>
@@ -16783,13 +16711,13 @@
       </c>
       <c r="B621" t="inlineStr">
         <is>
-          <t>EIA Crude Oil Imports ChangeFEB/14</t>
+          <t>EIA Refinery Crude Runs ChangeFEB/14</t>
         </is>
       </c>
       <c r="C621" t="inlineStr"/>
       <c r="D621" t="inlineStr">
         <is>
-          <t>-0.184M</t>
+          <t>0.082M</t>
         </is>
       </c>
       <c r="E621" t="inlineStr"/>
@@ -16803,43 +16731,39 @@
     <row r="622">
       <c r="A622" t="inlineStr">
         <is>
-          <t>12:00 PM</t>
+          <t>12:05 PM</t>
         </is>
       </c>
       <c r="B622" t="inlineStr">
         <is>
-          <t>EIA Cushing Crude Oil Stocks ChangeFEB/14</t>
+          <t>Fed Musalem Speech</t>
         </is>
       </c>
       <c r="C622" t="inlineStr"/>
-      <c r="D622" t="inlineStr">
-        <is>
-          <t>0.872M</t>
-        </is>
-      </c>
+      <c r="D622" t="inlineStr"/>
       <c r="E622" t="inlineStr"/>
       <c r="F622" t="inlineStr"/>
       <c r="G622" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="623">
       <c r="A623" t="inlineStr">
         <is>
-          <t>12:00 PM</t>
+          <t>01:00 PM</t>
         </is>
       </c>
       <c r="B623" t="inlineStr">
         <is>
-          <t>EIA Distillate Fuel Production ChangeFEB/14</t>
+          <t>30-Year TIPS Auction</t>
         </is>
       </c>
       <c r="C623" t="inlineStr"/>
       <c r="D623" t="inlineStr">
         <is>
-          <t>-0.009M</t>
+          <t>2.055%</t>
         </is>
       </c>
       <c r="E623" t="inlineStr"/>
@@ -16853,18 +16777,18 @@
     <row r="624">
       <c r="A624" t="inlineStr">
         <is>
-          <t>12:00 PM</t>
+          <t>04:30 PM</t>
         </is>
       </c>
       <c r="B624" t="inlineStr">
         <is>
-          <t>EIA Distillate Stocks ChangeFEB/14</t>
+          <t>Fed Balance SheetFEB/19</t>
         </is>
       </c>
       <c r="C624" t="inlineStr"/>
       <c r="D624" t="inlineStr">
         <is>
-          <t>0.135M</t>
+          <t>$6.81T</t>
         </is>
       </c>
       <c r="E624" t="inlineStr"/>
@@ -16878,162 +16802,186 @@
     <row r="625">
       <c r="A625" t="inlineStr">
         <is>
-          <t>12:00 PM</t>
-        </is>
-      </c>
-      <c r="B625" t="inlineStr">
-        <is>
-          <t>EIA Gasoline Production ChangeFEB/14</t>
-        </is>
-      </c>
+          <t>Friday February 21 2025</t>
+        </is>
+      </c>
+      <c r="B625" t="inlineStr"/>
       <c r="C625" t="inlineStr"/>
-      <c r="D625" t="inlineStr">
-        <is>
-          <t>0.18M</t>
-        </is>
-      </c>
+      <c r="D625" t="inlineStr"/>
       <c r="E625" t="inlineStr"/>
       <c r="F625" t="inlineStr"/>
-      <c r="G625" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
+      <c r="G625" t="inlineStr"/>
     </row>
     <row r="626">
       <c r="A626" t="inlineStr">
         <is>
-          <t>12:00 PM</t>
+          <t>09:45 AM</t>
         </is>
       </c>
       <c r="B626" t="inlineStr">
         <is>
-          <t>EIA Heating Oil Stocks ChangeFEB/14</t>
+          <t>S&amp;P Global Composite PMI FlashFEB</t>
         </is>
       </c>
       <c r="C626" t="inlineStr"/>
       <c r="D626" t="inlineStr">
         <is>
-          <t>0.159M</t>
+          <t>52.7</t>
         </is>
       </c>
       <c r="E626" t="inlineStr"/>
-      <c r="F626" t="inlineStr"/>
+      <c r="F626" t="inlineStr">
+        <is>
+          <t>52.7</t>
+        </is>
+      </c>
       <c r="G626" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="627">
       <c r="A627" t="inlineStr">
         <is>
-          <t>12:00 PM</t>
+          <t>09:45 AM</t>
         </is>
       </c>
       <c r="B627" t="inlineStr">
         <is>
-          <t>EIA Refinery Crude Runs ChangeFEB/14</t>
+          <t>S&amp;P Global Manufacturing PMI FlashFEB</t>
         </is>
       </c>
       <c r="C627" t="inlineStr"/>
       <c r="D627" t="inlineStr">
         <is>
-          <t>0.082M</t>
+          <t>51.2</t>
         </is>
       </c>
       <c r="E627" t="inlineStr"/>
-      <c r="F627" t="inlineStr"/>
+      <c r="F627" t="inlineStr">
+        <is>
+          <t>51.3</t>
+        </is>
+      </c>
       <c r="G627" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="628">
       <c r="A628" t="inlineStr">
         <is>
-          <t>01:00 PM</t>
+          <t>09:45 AM</t>
         </is>
       </c>
       <c r="B628" t="inlineStr">
         <is>
-          <t>30-Year TIPS Auction</t>
+          <t>S&amp;P Global Services PMI FlashFEB</t>
         </is>
       </c>
       <c r="C628" t="inlineStr"/>
       <c r="D628" t="inlineStr">
         <is>
-          <t>2.055%</t>
+          <t>52.9</t>
         </is>
       </c>
       <c r="E628" t="inlineStr"/>
-      <c r="F628" t="inlineStr"/>
+      <c r="F628" t="inlineStr">
+        <is>
+          <t>52.7</t>
+        </is>
+      </c>
       <c r="G628" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="629">
       <c r="A629" t="inlineStr">
         <is>
-          <t>04:30 PM</t>
+          <t>10:00 AM</t>
         </is>
       </c>
       <c r="B629" t="inlineStr">
         <is>
-          <t>Fed Balance SheetFEB/19</t>
+          <t>Existing Home SalesJAN</t>
         </is>
       </c>
       <c r="C629" t="inlineStr"/>
       <c r="D629" t="inlineStr">
         <is>
-          <t>$6.81T</t>
+          <t>4.24M</t>
         </is>
       </c>
       <c r="E629" t="inlineStr"/>
-      <c r="F629" t="inlineStr"/>
+      <c r="F629" t="inlineStr">
+        <is>
+          <t>4.16M</t>
+        </is>
+      </c>
       <c r="G629" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1</t>
         </is>
       </c>
     </row>
     <row r="630">
       <c r="A630" t="inlineStr">
         <is>
-          <t>Friday February 21 2025</t>
-        </is>
-      </c>
-      <c r="B630" t="inlineStr"/>
+          <t>10:00 AM</t>
+        </is>
+      </c>
+      <c r="B630" t="inlineStr">
+        <is>
+          <t>Existing Home Sales MoMJAN</t>
+        </is>
+      </c>
       <c r="C630" t="inlineStr"/>
-      <c r="D630" t="inlineStr"/>
+      <c r="D630" t="inlineStr">
+        <is>
+          <t>2.2%</t>
+        </is>
+      </c>
       <c r="E630" t="inlineStr"/>
-      <c r="F630" t="inlineStr"/>
-      <c r="G630" t="inlineStr"/>
+      <c r="F630" t="inlineStr">
+        <is>
+          <t>-1.7%</t>
+        </is>
+      </c>
+      <c r="G630" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
     </row>
     <row r="631">
       <c r="A631" t="inlineStr">
         <is>
-          <t>09:45 AM</t>
+          <t>10:00 AM</t>
         </is>
       </c>
       <c r="B631" t="inlineStr">
         <is>
-          <t>S&amp;P Global Composite PMI FlashFEB</t>
+          <t>Michigan Consumer Sentiment FinalFEB</t>
         </is>
       </c>
       <c r="C631" t="inlineStr"/>
       <c r="D631" t="inlineStr">
         <is>
-          <t>52.7</t>
-        </is>
-      </c>
-      <c r="E631" t="inlineStr"/>
+          <t>71.1</t>
+        </is>
+      </c>
+      <c r="E631" t="inlineStr">
+        <is>
+          <t>67.8</t>
+        </is>
+      </c>
       <c r="F631" t="inlineStr">
         <is>
-          <t>52.7</t>
+          <t>67.8</t>
         </is>
       </c>
       <c r="G631" t="inlineStr">
@@ -17045,58 +16993,66 @@
     <row r="632">
       <c r="A632" t="inlineStr">
         <is>
-          <t>09:45 AM</t>
+          <t>10:00 AM</t>
         </is>
       </c>
       <c r="B632" t="inlineStr">
         <is>
-          <t>S&amp;P Global Manufacturing PMI FlashFEB</t>
+          <t>Michigan 5 Year Inflation Expectations FinalFEB</t>
         </is>
       </c>
       <c r="C632" t="inlineStr"/>
       <c r="D632" t="inlineStr">
         <is>
-          <t>51.2</t>
-        </is>
-      </c>
-      <c r="E632" t="inlineStr"/>
+          <t>3.2%</t>
+        </is>
+      </c>
+      <c r="E632" t="inlineStr">
+        <is>
+          <t>3.3%</t>
+        </is>
+      </c>
       <c r="F632" t="inlineStr">
         <is>
-          <t>51.3</t>
+          <t>3.3%</t>
         </is>
       </c>
       <c r="G632" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="633">
       <c r="A633" t="inlineStr">
         <is>
-          <t>09:45 AM</t>
+          <t>10:00 AM</t>
         </is>
       </c>
       <c r="B633" t="inlineStr">
         <is>
-          <t>S&amp;P Global Services PMI FlashFEB</t>
+          <t>Michigan Consumer Expectations FinalFEB</t>
         </is>
       </c>
       <c r="C633" t="inlineStr"/>
       <c r="D633" t="inlineStr">
         <is>
-          <t>52.9</t>
-        </is>
-      </c>
-      <c r="E633" t="inlineStr"/>
+          <t>69.3</t>
+        </is>
+      </c>
+      <c r="E633" t="inlineStr">
+        <is>
+          <t>67.3</t>
+        </is>
+      </c>
       <c r="F633" t="inlineStr">
         <is>
-          <t>52.7</t>
+          <t>67.3</t>
         </is>
       </c>
       <c r="G633" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
@@ -17108,24 +17064,28 @@
       </c>
       <c r="B634" t="inlineStr">
         <is>
-          <t>Existing Home SalesJAN</t>
+          <t>Michigan Current Conditions FinalFEB</t>
         </is>
       </c>
       <c r="C634" t="inlineStr"/>
       <c r="D634" t="inlineStr">
         <is>
-          <t>4.24M</t>
-        </is>
-      </c>
-      <c r="E634" t="inlineStr"/>
+          <t>74</t>
+        </is>
+      </c>
+      <c r="E634" t="inlineStr">
+        <is>
+          <t>68.7</t>
+        </is>
+      </c>
       <c r="F634" t="inlineStr">
         <is>
-          <t>4.16M</t>
+          <t>68.7</t>
         </is>
       </c>
       <c r="G634" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
     </row>
@@ -17137,87 +17097,67 @@
       </c>
       <c r="B635" t="inlineStr">
         <is>
-          <t>Existing Home Sales MoMJAN</t>
+          <t>Michigan Inflation Expectations FinalFEB</t>
         </is>
       </c>
       <c r="C635" t="inlineStr"/>
       <c r="D635" t="inlineStr">
         <is>
-          <t>2.2%</t>
-        </is>
-      </c>
-      <c r="E635" t="inlineStr"/>
+          <t>3.3%</t>
+        </is>
+      </c>
+      <c r="E635" t="inlineStr">
+        <is>
+          <t>4.3%</t>
+        </is>
+      </c>
       <c r="F635" t="inlineStr">
         <is>
-          <t>-1.7%</t>
+          <t>4.3%</t>
         </is>
       </c>
       <c r="G635" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="636">
       <c r="A636" t="inlineStr">
         <is>
-          <t>10:00 AM</t>
+          <t>01:00 PM</t>
         </is>
       </c>
       <c r="B636" t="inlineStr">
         <is>
-          <t>Michigan Consumer Sentiment FinalFEB</t>
+          <t>Baker Hughes Oil Rig CountFEB/21</t>
         </is>
       </c>
       <c r="C636" t="inlineStr"/>
-      <c r="D636" t="inlineStr">
-        <is>
-          <t>71.1</t>
-        </is>
-      </c>
-      <c r="E636" t="inlineStr">
-        <is>
-          <t>67.8</t>
-        </is>
-      </c>
-      <c r="F636" t="inlineStr">
-        <is>
-          <t>67.8</t>
-        </is>
-      </c>
+      <c r="D636" t="inlineStr"/>
+      <c r="E636" t="inlineStr"/>
+      <c r="F636" t="inlineStr"/>
       <c r="G636" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="637">
       <c r="A637" t="inlineStr">
         <is>
-          <t>10:00 AM</t>
+          <t>01:00 PM</t>
         </is>
       </c>
       <c r="B637" t="inlineStr">
         <is>
-          <t>Michigan 5 Year Inflation Expectations FinalFEB</t>
+          <t>Baker Hughes Total Rigs CountFEB/21</t>
         </is>
       </c>
       <c r="C637" t="inlineStr"/>
-      <c r="D637" t="inlineStr">
-        <is>
-          <t>3.2%</t>
-        </is>
-      </c>
-      <c r="E637" t="inlineStr">
-        <is>
-          <t>3.3%</t>
-        </is>
-      </c>
-      <c r="F637" t="inlineStr">
-        <is>
-          <t>3.3%</t>
-        </is>
-      </c>
+      <c r="D637" t="inlineStr"/>
+      <c r="E637" t="inlineStr"/>
+      <c r="F637" t="inlineStr"/>
       <c r="G637" t="inlineStr">
         <is>
           <t>3</t>
@@ -17227,169 +17167,28 @@
     <row r="638">
       <c r="A638" t="inlineStr">
         <is>
-          <t>10:00 AM</t>
-        </is>
-      </c>
-      <c r="B638" t="inlineStr">
-        <is>
-          <t>Michigan Consumer Expectations FinalFEB</t>
-        </is>
-      </c>
+          <t>Saturday February 22 2025</t>
+        </is>
+      </c>
+      <c r="B638" t="inlineStr"/>
       <c r="C638" t="inlineStr"/>
-      <c r="D638" t="inlineStr">
-        <is>
-          <t>69.3</t>
-        </is>
-      </c>
-      <c r="E638" t="inlineStr">
-        <is>
-          <t>67.3</t>
-        </is>
-      </c>
-      <c r="F638" t="inlineStr">
-        <is>
-          <t>67.3</t>
-        </is>
-      </c>
-      <c r="G638" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
+      <c r="D638" t="inlineStr"/>
+      <c r="E638" t="inlineStr"/>
+      <c r="F638" t="inlineStr"/>
+      <c r="G638" t="inlineStr"/>
     </row>
     <row r="639">
       <c r="A639" t="inlineStr">
         <is>
-          <t>10:00 AM</t>
-        </is>
-      </c>
-      <c r="B639" t="inlineStr">
-        <is>
-          <t>Michigan Current Conditions FinalFEB</t>
-        </is>
-      </c>
+          <t>Monday February 24 2025</t>
+        </is>
+      </c>
+      <c r="B639" t="inlineStr"/>
       <c r="C639" t="inlineStr"/>
-      <c r="D639" t="inlineStr">
-        <is>
-          <t>74</t>
-        </is>
-      </c>
-      <c r="E639" t="inlineStr">
-        <is>
-          <t>68.7</t>
-        </is>
-      </c>
-      <c r="F639" t="inlineStr">
-        <is>
-          <t>68.7</t>
-        </is>
-      </c>
-      <c r="G639" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="640">
-      <c r="A640" t="inlineStr">
-        <is>
-          <t>10:00 AM</t>
-        </is>
-      </c>
-      <c r="B640" t="inlineStr">
-        <is>
-          <t>Michigan Inflation Expectations FinalFEB</t>
-        </is>
-      </c>
-      <c r="C640" t="inlineStr"/>
-      <c r="D640" t="inlineStr">
-        <is>
-          <t>3.3%</t>
-        </is>
-      </c>
-      <c r="E640" t="inlineStr">
-        <is>
-          <t>4.3%</t>
-        </is>
-      </c>
-      <c r="F640" t="inlineStr">
-        <is>
-          <t>4.3%</t>
-        </is>
-      </c>
-      <c r="G640" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="641">
-      <c r="A641" t="inlineStr">
-        <is>
-          <t>01:00 PM</t>
-        </is>
-      </c>
-      <c r="B641" t="inlineStr">
-        <is>
-          <t>Baker Hughes Oil Rig CountFEB/21</t>
-        </is>
-      </c>
-      <c r="C641" t="inlineStr"/>
-      <c r="D641" t="inlineStr"/>
-      <c r="E641" t="inlineStr"/>
-      <c r="F641" t="inlineStr"/>
-      <c r="G641" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="642">
-      <c r="A642" t="inlineStr">
-        <is>
-          <t>01:00 PM</t>
-        </is>
-      </c>
-      <c r="B642" t="inlineStr">
-        <is>
-          <t>Baker Hughes Total Rigs CountFEB/21</t>
-        </is>
-      </c>
-      <c r="C642" t="inlineStr"/>
-      <c r="D642" t="inlineStr"/>
-      <c r="E642" t="inlineStr"/>
-      <c r="F642" t="inlineStr"/>
-      <c r="G642" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="643">
-      <c r="A643" t="inlineStr">
-        <is>
-          <t>Saturday February 22 2025</t>
-        </is>
-      </c>
-      <c r="B643" t="inlineStr"/>
-      <c r="C643" t="inlineStr"/>
-      <c r="D643" t="inlineStr"/>
-      <c r="E643" t="inlineStr"/>
-      <c r="F643" t="inlineStr"/>
-      <c r="G643" t="inlineStr"/>
-    </row>
-    <row r="644">
-      <c r="A644" t="inlineStr">
-        <is>
-          <t>Monday February 24 2025</t>
-        </is>
-      </c>
-      <c r="B644" t="inlineStr"/>
-      <c r="C644" t="inlineStr"/>
-      <c r="D644" t="inlineStr"/>
-      <c r="E644" t="inlineStr"/>
-      <c r="F644" t="inlineStr"/>
-      <c r="G644" t="inlineStr"/>
+      <c r="D639" t="inlineStr"/>
+      <c r="E639" t="inlineStr"/>
+      <c r="F639" t="inlineStr"/>
+      <c r="G639" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/Input_data/EST_US_trad_eco_cal_2024-12-28_to_2025-02-24.xlsx
+++ b/Input_data/EST_US_trad_eco_cal_2024-12-28_to_2025-02-24.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G682"/>
+  <dimension ref="A1:G683"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -15728,10 +15728,14 @@
           <t>Retail Sales MoMJAN</t>
         </is>
       </c>
-      <c r="C583" t="inlineStr"/>
+      <c r="C583" t="inlineStr">
+        <is>
+          <t>-0.9%</t>
+        </is>
+      </c>
       <c r="D583" t="inlineStr">
         <is>
-          <t>0.4%</t>
+          <t>0.7%</t>
         </is>
       </c>
       <c r="E583" t="inlineStr">
@@ -15761,10 +15765,14 @@
           <t>Export Prices MoMJAN</t>
         </is>
       </c>
-      <c r="C584" t="inlineStr"/>
+      <c r="C584" t="inlineStr">
+        <is>
+          <t>1.3%</t>
+        </is>
+      </c>
       <c r="D584" t="inlineStr">
         <is>
-          <t>0.3%</t>
+          <t>0.5%</t>
         </is>
       </c>
       <c r="E584" t="inlineStr">
@@ -15794,10 +15802,14 @@
           <t>Import Prices MoMJAN</t>
         </is>
       </c>
-      <c r="C585" t="inlineStr"/>
+      <c r="C585" t="inlineStr">
+        <is>
+          <t>0.3%</t>
+        </is>
+      </c>
       <c r="D585" t="inlineStr">
         <is>
-          <t>0.1%</t>
+          <t>0.2%</t>
         </is>
       </c>
       <c r="E585" t="inlineStr">
@@ -15827,10 +15839,14 @@
           <t>Retail Sales Control Group MoMJAN</t>
         </is>
       </c>
-      <c r="C586" t="inlineStr"/>
+      <c r="C586" t="inlineStr">
+        <is>
+          <t>-0.8%</t>
+        </is>
+      </c>
       <c r="D586" t="inlineStr">
         <is>
-          <t>0.7%</t>
+          <t>0.8%</t>
         </is>
       </c>
       <c r="E586" t="inlineStr">
@@ -15860,10 +15876,14 @@
           <t>Retail Sales Ex Autos MoMJAN</t>
         </is>
       </c>
-      <c r="C587" t="inlineStr"/>
+      <c r="C587" t="inlineStr">
+        <is>
+          <t>-0.4%</t>
+        </is>
+      </c>
       <c r="D587" t="inlineStr">
         <is>
-          <t>0.4%</t>
+          <t>0.7%</t>
         </is>
       </c>
       <c r="E587" t="inlineStr">
@@ -15893,10 +15913,14 @@
           <t>Export Prices YoYJAN</t>
         </is>
       </c>
-      <c r="C588" t="inlineStr"/>
+      <c r="C588" t="inlineStr">
+        <is>
+          <t>2.7%</t>
+        </is>
+      </c>
       <c r="D588" t="inlineStr">
         <is>
-          <t>1.8%</t>
+          <t>2%</t>
         </is>
       </c>
       <c r="E588" t="inlineStr"/>
@@ -15922,7 +15946,11 @@
           <t>Import Prices YoYJAN</t>
         </is>
       </c>
-      <c r="C589" t="inlineStr"/>
+      <c r="C589" t="inlineStr">
+        <is>
+          <t>1.9%</t>
+        </is>
+      </c>
       <c r="D589" t="inlineStr">
         <is>
           <t>2.2%</t>
@@ -15951,10 +15979,14 @@
           <t>Retail Sales Ex Gas/Autos MoMJAN</t>
         </is>
       </c>
-      <c r="C590" t="inlineStr"/>
+      <c r="C590" t="inlineStr">
+        <is>
+          <t>-0.5%</t>
+        </is>
+      </c>
       <c r="D590" t="inlineStr">
         <is>
-          <t>0.3%</t>
+          <t>0.5%</t>
         </is>
       </c>
       <c r="E590" t="inlineStr"/>
@@ -15980,10 +16012,14 @@
           <t>Retail Sales YoYJAN</t>
         </is>
       </c>
-      <c r="C591" t="inlineStr"/>
+      <c r="C591" t="inlineStr">
+        <is>
+          <t>4.2%</t>
+        </is>
+      </c>
       <c r="D591" t="inlineStr">
         <is>
-          <t>3.9%</t>
+          <t>4.4%</t>
         </is>
       </c>
       <c r="E591" t="inlineStr"/>
@@ -18257,6 +18293,31 @@
       <c r="F682" t="inlineStr"/>
       <c r="G682" t="inlineStr"/>
     </row>
+    <row r="683">
+      <c r="A683" t="inlineStr">
+        <is>
+          <t>08:30 AM</t>
+        </is>
+      </c>
+      <c r="B683" t="inlineStr">
+        <is>
+          <t>Chicago Fed National Activity IndexJAN</t>
+        </is>
+      </c>
+      <c r="C683" t="inlineStr"/>
+      <c r="D683" t="inlineStr">
+        <is>
+          <t>0.15</t>
+        </is>
+      </c>
+      <c r="E683" t="inlineStr"/>
+      <c r="F683" t="inlineStr"/>
+      <c r="G683" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/Input_data/EST_US_trad_eco_cal_2024-12-28_to_2025-02-24.xlsx
+++ b/Input_data/EST_US_trad_eco_cal_2024-12-28_to_2025-02-24.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G684"/>
+  <dimension ref="A1:G686"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -18411,6 +18411,48 @@
         </is>
       </c>
     </row>
+    <row r="685">
+      <c r="A685" t="inlineStr">
+        <is>
+          <t>11:30 AM</t>
+        </is>
+      </c>
+      <c r="B685" t="inlineStr">
+        <is>
+          <t>3-Month Bill Auction</t>
+        </is>
+      </c>
+      <c r="C685" t="inlineStr"/>
+      <c r="D685" t="inlineStr"/>
+      <c r="E685" t="inlineStr"/>
+      <c r="F685" t="inlineStr"/>
+      <c r="G685" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+    </row>
+    <row r="686">
+      <c r="A686" t="inlineStr">
+        <is>
+          <t>11:30 AM</t>
+        </is>
+      </c>
+      <c r="B686" t="inlineStr">
+        <is>
+          <t>6-Month Bill Auction</t>
+        </is>
+      </c>
+      <c r="C686" t="inlineStr"/>
+      <c r="D686" t="inlineStr"/>
+      <c r="E686" t="inlineStr"/>
+      <c r="F686" t="inlineStr"/>
+      <c r="G686" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/Input_data/EST_US_trad_eco_cal_2024-12-28_to_2025-02-24.xlsx
+++ b/Input_data/EST_US_trad_eco_cal_2024-12-28_to_2025-02-24.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G686"/>
+  <dimension ref="A1:G687"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -16296,7 +16296,11 @@
           <t>Baker Hughes Oil Rig CountFEB/14</t>
         </is>
       </c>
-      <c r="C599" t="inlineStr"/>
+      <c r="C599" t="inlineStr">
+        <is>
+          <t>481</t>
+        </is>
+      </c>
       <c r="D599" t="inlineStr">
         <is>
           <t>480</t>
@@ -16321,7 +16325,11 @@
           <t>Baker Hughes Total Rigs CountFEB/14</t>
         </is>
       </c>
-      <c r="C600" t="inlineStr"/>
+      <c r="C600" t="inlineStr">
+        <is>
+          <t>588</t>
+        </is>
+      </c>
       <c r="D600" t="inlineStr">
         <is>
           <t>586</t>
@@ -18305,7 +18313,11 @@
         </is>
       </c>
       <c r="C679" t="inlineStr"/>
-      <c r="D679" t="inlineStr"/>
+      <c r="D679" t="inlineStr">
+        <is>
+          <t>481</t>
+        </is>
+      </c>
       <c r="E679" t="inlineStr"/>
       <c r="F679" t="inlineStr"/>
       <c r="G679" t="inlineStr">
@@ -18326,7 +18338,11 @@
         </is>
       </c>
       <c r="C680" t="inlineStr"/>
-      <c r="D680" t="inlineStr"/>
+      <c r="D680" t="inlineStr">
+        <is>
+          <t>588</t>
+        </is>
+      </c>
       <c r="E680" t="inlineStr"/>
       <c r="F680" t="inlineStr"/>
       <c r="G680" t="inlineStr">
@@ -18453,6 +18469,27 @@
         </is>
       </c>
     </row>
+    <row r="687">
+      <c r="A687" t="inlineStr">
+        <is>
+          <t>01:00 PM</t>
+        </is>
+      </c>
+      <c r="B687" t="inlineStr">
+        <is>
+          <t>2-Year Note Auction</t>
+        </is>
+      </c>
+      <c r="C687" t="inlineStr"/>
+      <c r="D687" t="inlineStr"/>
+      <c r="E687" t="inlineStr"/>
+      <c r="F687" t="inlineStr"/>
+      <c r="G687" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
